--- a/logs/Enrollment_Log.xlsx
+++ b/logs/Enrollment_Log.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Enrollment_Log" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Enrollment_Log" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="447">
   <si>
     <t>Subject_ID</t>
   </si>
@@ -40,70 +40,1324 @@
     <t>Research_Assistant_Initials</t>
   </si>
   <si>
-    <t>k</t>
-  </si>
-  <si>
-    <t>2017-10-27</t>
-  </si>
-  <si>
-    <t>22:25:47.879495</t>
-  </si>
-  <si>
-    <t>j</t>
-  </si>
-  <si>
-    <t>22:27:40.615311</t>
-  </si>
-  <si>
-    <t>22:28:47.457412</t>
-  </si>
-  <si>
-    <t>22:30:04.023864</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>22:30:44.408791</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>2017-10-28</t>
-  </si>
-  <si>
-    <t>13:11:37.430766</t>
-  </si>
-  <si>
-    <t>22:01:36.640593</t>
+    <t>292</t>
+  </si>
+  <si>
+    <t>11/10/2015</t>
+  </si>
+  <si>
+    <t>0:30</t>
   </si>
   <si>
     <t>9</t>
   </si>
   <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>-0</t>
-  </si>
-  <si>
-    <t>22:03:54.603169</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>d</t>
+    <t>U</t>
+  </si>
+  <si>
+    <t>arm2</t>
+  </si>
+  <si>
+    <t>eio</t>
+  </si>
+  <si>
+    <t>970</t>
+  </si>
+  <si>
+    <t>12/7/2016</t>
+  </si>
+  <si>
+    <t>23:35</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>lvj</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>2/19/2013</t>
+  </si>
+  <si>
+    <t>22:37</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>adg</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>9/26/2015</t>
+  </si>
+  <si>
+    <t>8:49</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>arm1</t>
+  </si>
+  <si>
+    <t>xke</t>
+  </si>
+  <si>
+    <t>759</t>
+  </si>
+  <si>
+    <t>9/4/2015</t>
+  </si>
+  <si>
+    <t>17:8</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>qmb</t>
+  </si>
+  <si>
+    <t>471</t>
+  </si>
+  <si>
+    <t>2/10/2013</t>
+  </si>
+  <si>
+    <t>22:43</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>eia</t>
+  </si>
+  <si>
+    <t>619</t>
+  </si>
+  <si>
+    <t>3/14/2012</t>
+  </si>
+  <si>
+    <t>19:52</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>osh</t>
+  </si>
+  <si>
+    <t>943</t>
+  </si>
+  <si>
+    <t>1/7/2016</t>
+  </si>
+  <si>
+    <t>18:56</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>xjm</t>
+  </si>
+  <si>
+    <t>295</t>
+  </si>
+  <si>
+    <t>5/25/2016</t>
+  </si>
+  <si>
+    <t>5:56</t>
+  </si>
+  <si>
+    <t>ffj</t>
+  </si>
+  <si>
+    <t>639</t>
+  </si>
+  <si>
+    <t>12/16/2012</t>
+  </si>
+  <si>
+    <t>2:21</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>qrk</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>8/15/2016</t>
+  </si>
+  <si>
+    <t>16:5</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>awh</t>
+  </si>
+  <si>
+    <t>406</t>
+  </si>
+  <si>
+    <t>8/12/2014</t>
+  </si>
+  <si>
+    <t>18:45</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>jub</t>
+  </si>
+  <si>
+    <t>175</t>
+  </si>
+  <si>
+    <t>12/9/2014</t>
+  </si>
+  <si>
+    <t>16:11</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>xiq</t>
+  </si>
+  <si>
+    <t>640</t>
+  </si>
+  <si>
+    <t>1/22/2014</t>
+  </si>
+  <si>
+    <t>11:17</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>fof</t>
+  </si>
+  <si>
+    <t>734</t>
+  </si>
+  <si>
+    <t>3/28/2016</t>
+  </si>
+  <si>
+    <t>20:50</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>wle</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>3/2/2012</t>
+  </si>
+  <si>
+    <t>6:59</t>
+  </si>
+  <si>
+    <t>tce</t>
+  </si>
+  <si>
+    <t>397</t>
+  </si>
+  <si>
+    <t>5/22/2016</t>
+  </si>
+  <si>
+    <t>23:7</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>snt</t>
+  </si>
+  <si>
+    <t>278</t>
+  </si>
+  <si>
+    <t>11/25/2012</t>
+  </si>
+  <si>
+    <t>9:46</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>gqx</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>7/26/2013</t>
+  </si>
+  <si>
+    <t>3:30</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>bik</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>8/21/2014</t>
+  </si>
+  <si>
+    <t>21:35</t>
+  </si>
+  <si>
+    <t>eej</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>12/14/2016</t>
+  </si>
+  <si>
+    <t>ild</t>
+  </si>
+  <si>
+    <t>587</t>
+  </si>
+  <si>
+    <t>4/28/2012</t>
+  </si>
+  <si>
+    <t>6:51</t>
+  </si>
+  <si>
+    <t>fdi</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>1/18/2014</t>
+  </si>
+  <si>
+    <t>20:39</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>xtx</t>
+  </si>
+  <si>
+    <t>576</t>
+  </si>
+  <si>
+    <t>12/8/2016</t>
+  </si>
+  <si>
+    <t>0:58</t>
+  </si>
+  <si>
+    <t>tvj</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>4/19/2015</t>
+  </si>
+  <si>
+    <t>23:36</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>pej</t>
+  </si>
+  <si>
+    <t>858</t>
+  </si>
+  <si>
+    <t>7/11/2013</t>
+  </si>
+  <si>
+    <t>8:2</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>luh</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>9/3/2015</t>
+  </si>
+  <si>
+    <t>5:17</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>ueq</t>
+  </si>
+  <si>
+    <t>6/20/2015</t>
+  </si>
+  <si>
+    <t>19:53</t>
+  </si>
+  <si>
+    <t>rss</t>
+  </si>
+  <si>
+    <t>602</t>
+  </si>
+  <si>
+    <t>3/21/2014</t>
+  </si>
+  <si>
+    <t>17:52</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>fpt</t>
   </si>
   <si>
     <t>12</t>
   </si>
   <si>
-    <t>2017-10-30</t>
-  </si>
-  <si>
-    <t>06:01:35.667092</t>
+    <t>4/23/2012</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>hgp</t>
+  </si>
+  <si>
+    <t>531</t>
+  </si>
+  <si>
+    <t>2/26/2016</t>
+  </si>
+  <si>
+    <t>14:57</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>sin</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>7/22/2015</t>
+  </si>
+  <si>
+    <t>3:39</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>tiq</t>
+  </si>
+  <si>
+    <t>419</t>
+  </si>
+  <si>
+    <t>11/19/2014</t>
+  </si>
+  <si>
+    <t>6:6</t>
+  </si>
+  <si>
+    <t>dwc</t>
+  </si>
+  <si>
+    <t>880</t>
+  </si>
+  <si>
+    <t>9/28/2014</t>
+  </si>
+  <si>
+    <t>12:3</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>xov</t>
+  </si>
+  <si>
+    <t>794</t>
+  </si>
+  <si>
+    <t>8/2/2012</t>
+  </si>
+  <si>
+    <t>12:8</t>
+  </si>
+  <si>
+    <t>bhv</t>
+  </si>
+  <si>
+    <t>895</t>
+  </si>
+  <si>
+    <t>9/16/2013</t>
+  </si>
+  <si>
+    <t>5:10</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>wdb</t>
+  </si>
+  <si>
+    <t>633</t>
+  </si>
+  <si>
+    <t>9/28/2013</t>
+  </si>
+  <si>
+    <t>7:3</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>wgy</t>
+  </si>
+  <si>
+    <t>4/13/2013</t>
+  </si>
+  <si>
+    <t>5:16</t>
+  </si>
+  <si>
+    <t>odn</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>6/20/2014</t>
+  </si>
+  <si>
+    <t>14:18</t>
+  </si>
+  <si>
+    <t>oeq</t>
+  </si>
+  <si>
+    <t>470</t>
+  </si>
+  <si>
+    <t>12/18/2014</t>
+  </si>
+  <si>
+    <t>9:6</t>
+  </si>
+  <si>
+    <t>kkd</t>
+  </si>
+  <si>
+    <t>872</t>
+  </si>
+  <si>
+    <t>7/8/2013</t>
+  </si>
+  <si>
+    <t>5:51</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>dvc</t>
+  </si>
+  <si>
+    <t>693</t>
+  </si>
+  <si>
+    <t>12/15/2013</t>
+  </si>
+  <si>
+    <t>18:13</t>
+  </si>
+  <si>
+    <t>lon</t>
+  </si>
+  <si>
+    <t>792</t>
+  </si>
+  <si>
+    <t>10/5/2016</t>
+  </si>
+  <si>
+    <t>19:7</t>
+  </si>
+  <si>
+    <t>fsd</t>
+  </si>
+  <si>
+    <t>536</t>
+  </si>
+  <si>
+    <t>7/19/2016</t>
+  </si>
+  <si>
+    <t>23:58</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>eqo</t>
+  </si>
+  <si>
+    <t>9/21/2012</t>
+  </si>
+  <si>
+    <t>12:6</t>
+  </si>
+  <si>
+    <t>tad</t>
+  </si>
+  <si>
+    <t>418</t>
+  </si>
+  <si>
+    <t>6/8/2015</t>
+  </si>
+  <si>
+    <t>18:34</t>
+  </si>
+  <si>
+    <t>pld</t>
+  </si>
+  <si>
+    <t>352</t>
+  </si>
+  <si>
+    <t>9/2/2015</t>
+  </si>
+  <si>
+    <t>23:32</t>
+  </si>
+  <si>
+    <t>poq</t>
+  </si>
+  <si>
+    <t>416</t>
+  </si>
+  <si>
+    <t>11/15/2012</t>
+  </si>
+  <si>
+    <t>23:49</t>
+  </si>
+  <si>
+    <t>zix</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t>12/11/2015</t>
+  </si>
+  <si>
+    <t>12:48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>dna</t>
+  </si>
+  <si>
+    <t>235</t>
+  </si>
+  <si>
+    <t>8/8/2014</t>
+  </si>
+  <si>
+    <t>10:42</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>ucw</t>
+  </si>
+  <si>
+    <t>369</t>
+  </si>
+  <si>
+    <t>10/16/2015</t>
+  </si>
+  <si>
+    <t>3:36</t>
+  </si>
+  <si>
+    <t>pnk</t>
+  </si>
+  <si>
+    <t>938</t>
+  </si>
+  <si>
+    <t>11/13/2012</t>
+  </si>
+  <si>
+    <t>dvt</t>
+  </si>
+  <si>
+    <t>8/26/2014</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>zao</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>11/25/2013</t>
+  </si>
+  <si>
+    <t>12:34</t>
+  </si>
+  <si>
+    <t>upk</t>
+  </si>
+  <si>
+    <t>4/27/2014</t>
+  </si>
+  <si>
+    <t>2:38</t>
+  </si>
+  <si>
+    <t>gyt</t>
+  </si>
+  <si>
+    <t>494</t>
+  </si>
+  <si>
+    <t>11/10/2013</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>iax</t>
+  </si>
+  <si>
+    <t>475</t>
+  </si>
+  <si>
+    <t>11/8/2012</t>
+  </si>
+  <si>
+    <t>4:51</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>rry</t>
+  </si>
+  <si>
+    <t>748</t>
+  </si>
+  <si>
+    <t>2/14/2013</t>
+  </si>
+  <si>
+    <t>5:22</t>
+  </si>
+  <si>
+    <t>gca</t>
+  </si>
+  <si>
+    <t>299</t>
+  </si>
+  <si>
+    <t>9/26/2013</t>
+  </si>
+  <si>
+    <t>17:4</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>chu</t>
+  </si>
+  <si>
+    <t>228</t>
+  </si>
+  <si>
+    <t>10/10/2013</t>
+  </si>
+  <si>
+    <t>5:41</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>fum</t>
+  </si>
+  <si>
+    <t>543</t>
+  </si>
+  <si>
+    <t>6/17/2015</t>
+  </si>
+  <si>
+    <t>5:45</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>ypl</t>
+  </si>
+  <si>
+    <t>447</t>
+  </si>
+  <si>
+    <t>1/21/2014</t>
+  </si>
+  <si>
+    <t>4:48</t>
+  </si>
+  <si>
+    <t>ylg</t>
+  </si>
+  <si>
+    <t>528</t>
+  </si>
+  <si>
+    <t>2/10/2014</t>
+  </si>
+  <si>
+    <t>20:43</t>
+  </si>
+  <si>
+    <t>lsh</t>
+  </si>
+  <si>
+    <t>498</t>
+  </si>
+  <si>
+    <t>2/20/2013</t>
+  </si>
+  <si>
+    <t>15:36</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>gye</t>
+  </si>
+  <si>
+    <t>824</t>
+  </si>
+  <si>
+    <t>1/4/2012</t>
+  </si>
+  <si>
+    <t>15:41</t>
+  </si>
+  <si>
+    <t>qvk</t>
+  </si>
+  <si>
+    <t>541</t>
+  </si>
+  <si>
+    <t>7/15/2016</t>
+  </si>
+  <si>
+    <t>9:10</t>
+  </si>
+  <si>
+    <t>zga</t>
+  </si>
+  <si>
+    <t>538</t>
+  </si>
+  <si>
+    <t>20:2</t>
+  </si>
+  <si>
+    <t>lkt</t>
+  </si>
+  <si>
+    <t>776</t>
+  </si>
+  <si>
+    <t>8/9/2014</t>
+  </si>
+  <si>
+    <t>15:17</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>smv</t>
+  </si>
+  <si>
+    <t>592</t>
+  </si>
+  <si>
+    <t>3/27/2016</t>
+  </si>
+  <si>
+    <t>5:26</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>nux</t>
+  </si>
+  <si>
+    <t>630</t>
+  </si>
+  <si>
+    <t>5/18/2014</t>
+  </si>
+  <si>
+    <t>19:26</t>
+  </si>
+  <si>
+    <t>hbn</t>
+  </si>
+  <si>
+    <t>3/14/2013</t>
+  </si>
+  <si>
+    <t>5:8</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>sjf</t>
+  </si>
+  <si>
+    <t>595</t>
+  </si>
+  <si>
+    <t>9/13/2013</t>
+  </si>
+  <si>
+    <t>4:42</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>idv</t>
+  </si>
+  <si>
+    <t>832</t>
+  </si>
+  <si>
+    <t>9/20/2015</t>
+  </si>
+  <si>
+    <t>1:34</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>ctv</t>
+  </si>
+  <si>
+    <t>593</t>
+  </si>
+  <si>
+    <t>7/25/2012</t>
+  </si>
+  <si>
+    <t>9:30</t>
+  </si>
+  <si>
+    <t>iqi</t>
+  </si>
+  <si>
+    <t>314</t>
+  </si>
+  <si>
+    <t>1/5/2013</t>
+  </si>
+  <si>
+    <t>9:19</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>twx</t>
+  </si>
+  <si>
+    <t>474</t>
+  </si>
+  <si>
+    <t>11/9/2013</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>dld</t>
+  </si>
+  <si>
+    <t>4/17/2015</t>
+  </si>
+  <si>
+    <t>7:46</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>kpt</t>
+  </si>
+  <si>
+    <t>20:28</t>
+  </si>
+  <si>
+    <t>erw</t>
+  </si>
+  <si>
+    <t>464</t>
+  </si>
+  <si>
+    <t>9/23/2015</t>
+  </si>
+  <si>
+    <t>14:25</t>
+  </si>
+  <si>
+    <t>qku</t>
+  </si>
+  <si>
+    <t>714</t>
+  </si>
+  <si>
+    <t>8/20/2013</t>
+  </si>
+  <si>
+    <t>12:36</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>tmf</t>
+  </si>
+  <si>
+    <t>427</t>
+  </si>
+  <si>
+    <t>1/13/2016</t>
+  </si>
+  <si>
+    <t>2:52</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>gfw</t>
+  </si>
+  <si>
+    <t>230</t>
+  </si>
+  <si>
+    <t>4/4/2016</t>
+  </si>
+  <si>
+    <t>18:49</t>
+  </si>
+  <si>
+    <t>fmd</t>
+  </si>
+  <si>
+    <t>705</t>
+  </si>
+  <si>
+    <t>6/19/2016</t>
+  </si>
+  <si>
+    <t>17:42</t>
+  </si>
+  <si>
+    <t>lox</t>
+  </si>
+  <si>
+    <t>395</t>
+  </si>
+  <si>
+    <t>10/4/2012</t>
+  </si>
+  <si>
+    <t>10:57</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>zxa</t>
+  </si>
+  <si>
+    <t>4/7/2015</t>
+  </si>
+  <si>
+    <t>1:19</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>hre</t>
+  </si>
+  <si>
+    <t>740</t>
+  </si>
+  <si>
+    <t>5/7/2013</t>
+  </si>
+  <si>
+    <t>3:55</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>hao</t>
+  </si>
+  <si>
+    <t>438</t>
+  </si>
+  <si>
+    <t>2/25/2014</t>
+  </si>
+  <si>
+    <t>2:9</t>
+  </si>
+  <si>
+    <t>coh</t>
+  </si>
+  <si>
+    <t>697</t>
+  </si>
+  <si>
+    <t>4/9/2016</t>
+  </si>
+  <si>
+    <t>10:38</t>
+  </si>
+  <si>
+    <t>rlu</t>
+  </si>
+  <si>
+    <t>7/1/2013</t>
+  </si>
+  <si>
+    <t>2:34</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>agn</t>
+  </si>
+  <si>
+    <t>8/2/2013</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>fsr</t>
+  </si>
+  <si>
+    <t>843</t>
+  </si>
+  <si>
+    <t>2/22/2016</t>
+  </si>
+  <si>
+    <t>22:24</t>
+  </si>
+  <si>
+    <t>kvl</t>
+  </si>
+  <si>
+    <t>269</t>
+  </si>
+  <si>
+    <t>9/17/2012</t>
+  </si>
+  <si>
+    <t>18:33</t>
+  </si>
+  <si>
+    <t>pum</t>
+  </si>
+  <si>
+    <t>224</t>
+  </si>
+  <si>
+    <t>6/26/2012</t>
+  </si>
+  <si>
+    <t>10:41</t>
+  </si>
+  <si>
+    <t>xxq</t>
+  </si>
+  <si>
+    <t>426</t>
+  </si>
+  <si>
+    <t>1/11/2015</t>
+  </si>
+  <si>
+    <t>17:15</t>
+  </si>
+  <si>
+    <t>rqb</t>
+  </si>
+  <si>
+    <t>650</t>
+  </si>
+  <si>
+    <t>4/26/2013</t>
+  </si>
+  <si>
+    <t>13:35</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>ett</t>
+  </si>
+  <si>
+    <t>517</t>
+  </si>
+  <si>
+    <t>12/6/2016</t>
+  </si>
+  <si>
+    <t>mmu</t>
+  </si>
+  <si>
+    <t>5/14/2013</t>
+  </si>
+  <si>
+    <t>3:7</t>
+  </si>
+  <si>
+    <t>ecw</t>
+  </si>
+  <si>
+    <t>12/28/2013</t>
+  </si>
+  <si>
+    <t>8:22</t>
+  </si>
+  <si>
+    <t>zww</t>
+  </si>
+  <si>
+    <t>367</t>
+  </si>
+  <si>
+    <t>10/1/2016</t>
+  </si>
+  <si>
+    <t>23:38</t>
+  </si>
+  <si>
+    <t>vkt</t>
+  </si>
+  <si>
+    <t>940</t>
+  </si>
+  <si>
+    <t>6/7/2015</t>
+  </si>
+  <si>
+    <t>3:21</t>
+  </si>
+  <si>
+    <t>iwk</t>
   </si>
 </sst>
 </file>
@@ -116,6 +1370,7 @@
   <fonts count="4">
     <font>
       <name val="Arial"/>
+      <charset val="1"/>
       <family val="2"/>
       <sz val="10"/>
     </font>
@@ -469,21 +1724,21 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="C8" activeCellId="0" pane="topLeft" sqref="C8"/>
+      <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="2:10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="10.734693877551"/>
-    <col customWidth="1" max="2" min="2" style="1" width="15.1836734693878"/>
-    <col customWidth="1" max="3" min="3" style="1" width="15.3265306122449"/>
-    <col customWidth="1" max="5" min="4" style="1" width="5.04081632653061"/>
-    <col customWidth="1" max="6" min="6" style="1" width="14.7704081632653"/>
-    <col customWidth="1" max="7" min="7" style="1" width="24.3520408163265"/>
-    <col customWidth="1" max="1025" min="8" style="1" width="11.5204081632653"/>
+    <col customWidth="1" max="1" min="1" style="1" width="10.530612244898"/>
+    <col customWidth="1" max="2" min="2" style="1" width="14.8469387755102"/>
+    <col customWidth="1" max="3" min="3" style="1" width="15.1173469387755"/>
+    <col customWidth="1" max="5" min="4" style="1" width="4.86224489795918"/>
+    <col customWidth="1" max="6" min="6" style="1" width="14.4438775510204"/>
+    <col customWidth="1" max="7" min="7" style="1" width="23.8928571428571"/>
+    <col customWidth="1" max="1025" min="8" style="1" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="12.75" r="1" s="2" spans="1:7">
@@ -509,7 +1764,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row customHeight="1" ht="12.8" r="2" s="2" spans="1:7">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -523,197 +1778,2290 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="3" s="2" spans="1:7">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="4" s="2" spans="1:7">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="5" s="2" spans="1:7">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="6" s="2" spans="1:7">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="7" s="2" spans="1:7">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="8" s="2" spans="1:7">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="9" s="2" spans="1:7">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="10" s="2" spans="1:7">
+      <c r="A10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" t="s">
+        <v>93</v>
+      </c>
+      <c r="E18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" t="s">
+        <v>98</v>
+      </c>
+      <c r="E19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>105</v>
+      </c>
+      <c r="B21" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" t="s">
+        <v>107</v>
+      </c>
+      <c r="D21" t="s">
+        <v>98</v>
+      </c>
+      <c r="E21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B22" t="s">
+        <v>110</v>
+      </c>
+      <c r="C22" t="s">
+        <v>102</v>
+      </c>
+      <c r="D22" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>112</v>
+      </c>
+      <c r="B23" t="s">
+        <v>113</v>
+      </c>
+      <c r="C23" t="s">
+        <v>114</v>
+      </c>
+      <c r="D23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>116</v>
+      </c>
+      <c r="B24" t="s">
+        <v>117</v>
+      </c>
+      <c r="C24" t="s">
+        <v>118</v>
+      </c>
+      <c r="D24" t="s">
+        <v>119</v>
+      </c>
+      <c r="E24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>121</v>
+      </c>
+      <c r="B25" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" t="s">
+        <v>123</v>
+      </c>
+      <c r="D25" t="s">
+        <v>119</v>
+      </c>
+      <c r="E25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>125</v>
+      </c>
+      <c r="B26" t="s">
+        <v>126</v>
+      </c>
+      <c r="C26" t="s">
+        <v>127</v>
+      </c>
+      <c r="D26" t="s">
+        <v>128</v>
+      </c>
+      <c r="E26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" t="s">
+        <v>30</v>
+      </c>
+      <c r="G26" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>130</v>
+      </c>
+      <c r="B27" t="s">
+        <v>131</v>
+      </c>
+      <c r="C27" t="s">
+        <v>132</v>
+      </c>
+      <c r="D27" t="s">
+        <v>133</v>
+      </c>
+      <c r="E27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>135</v>
+      </c>
+      <c r="B28" t="s">
+        <v>136</v>
+      </c>
+      <c r="C28" t="s">
+        <v>137</v>
+      </c>
+      <c r="D28" t="s">
+        <v>138</v>
+      </c>
+      <c r="E28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" t="s">
+        <v>140</v>
+      </c>
+      <c r="C29" t="s">
+        <v>141</v>
+      </c>
+      <c r="D29" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" t="s">
+        <v>30</v>
+      </c>
+      <c r="G29" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>143</v>
+      </c>
+      <c r="B30" t="s">
+        <v>144</v>
+      </c>
+      <c r="C30" t="s">
+        <v>145</v>
+      </c>
+      <c r="D30" t="s">
+        <v>146</v>
+      </c>
+      <c r="E30" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>148</v>
+      </c>
+      <c r="B31" t="s">
+        <v>149</v>
+      </c>
+      <c r="C31" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" t="s">
+        <v>150</v>
+      </c>
+      <c r="E31" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" t="s">
+        <v>30</v>
+      </c>
+      <c r="G31" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>152</v>
+      </c>
+      <c r="B32" t="s">
+        <v>153</v>
+      </c>
+      <c r="C32" t="s">
+        <v>154</v>
+      </c>
+      <c r="D32" t="s">
+        <v>155</v>
+      </c>
+      <c r="E32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" t="s">
+        <v>30</v>
+      </c>
+      <c r="G32" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>157</v>
+      </c>
+      <c r="B33" t="s">
+        <v>158</v>
+      </c>
+      <c r="C33" t="s">
+        <v>159</v>
+      </c>
+      <c r="D33" t="s">
+        <v>160</v>
+      </c>
+      <c r="E33" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" t="s">
+        <v>30</v>
+      </c>
+      <c r="G33" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>162</v>
+      </c>
+      <c r="B34" t="s">
+        <v>163</v>
+      </c>
+      <c r="C34" t="s">
+        <v>164</v>
+      </c>
+      <c r="D34" t="s">
+        <v>157</v>
+      </c>
+      <c r="E34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>166</v>
+      </c>
+      <c r="B35" t="s">
+        <v>167</v>
+      </c>
+      <c r="C35" t="s">
+        <v>168</v>
+      </c>
+      <c r="D35" t="s">
+        <v>169</v>
+      </c>
+      <c r="E35" t="s">
+        <v>24</v>
+      </c>
+      <c r="F35" t="s">
+        <v>30</v>
+      </c>
+      <c r="G35" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>171</v>
+      </c>
+      <c r="B36" t="s">
+        <v>172</v>
+      </c>
+      <c r="C36" t="s">
+        <v>173</v>
+      </c>
+      <c r="D36" t="s">
+        <v>146</v>
+      </c>
+      <c r="E36" t="s">
+        <v>24</v>
+      </c>
+      <c r="F36" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>175</v>
+      </c>
+      <c r="B37" t="s">
+        <v>176</v>
+      </c>
+      <c r="C37" t="s">
+        <v>177</v>
+      </c>
+      <c r="D37" t="s">
+        <v>178</v>
+      </c>
+      <c r="E37" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" t="s">
+        <v>30</v>
+      </c>
+      <c r="G37" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>180</v>
+      </c>
+      <c r="B38" t="s">
+        <v>181</v>
+      </c>
+      <c r="C38" t="s">
+        <v>182</v>
+      </c>
+      <c r="D38" t="s">
+        <v>183</v>
+      </c>
+      <c r="E38" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" t="s">
+        <v>30</v>
+      </c>
+      <c r="G38" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>116</v>
+      </c>
+      <c r="B39" t="s">
+        <v>185</v>
+      </c>
+      <c r="C39" t="s">
+        <v>186</v>
+      </c>
+      <c r="D39" t="s">
+        <v>74</v>
+      </c>
+      <c r="E39" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>188</v>
+      </c>
+      <c r="B40" t="s">
+        <v>189</v>
+      </c>
+      <c r="C40" t="s">
+        <v>190</v>
+      </c>
+      <c r="D40" t="s">
+        <v>169</v>
+      </c>
+      <c r="E40" t="s">
+        <v>24</v>
+      </c>
+      <c r="F40" t="s">
+        <v>30</v>
+      </c>
+      <c r="G40" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>192</v>
+      </c>
+      <c r="B41" t="s">
+        <v>193</v>
+      </c>
+      <c r="C41" t="s">
+        <v>194</v>
+      </c>
+      <c r="D41" t="s">
+        <v>160</v>
+      </c>
+      <c r="E41" t="s">
+        <v>24</v>
+      </c>
+      <c r="F41" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>196</v>
+      </c>
+      <c r="B42" t="s">
+        <v>197</v>
+      </c>
+      <c r="C42" t="s">
+        <v>198</v>
+      </c>
+      <c r="D42" t="s">
+        <v>199</v>
+      </c>
+      <c r="E42" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" t="s">
+        <v>201</v>
+      </c>
+      <c r="B43" t="s">
+        <v>202</v>
+      </c>
+      <c r="C43" t="s">
+        <v>203</v>
+      </c>
+      <c r="D43" t="s">
+        <v>17</v>
+      </c>
+      <c r="E43" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" t="s">
+        <v>205</v>
+      </c>
+      <c r="B44" t="s">
+        <v>206</v>
+      </c>
+      <c r="C44" t="s">
+        <v>207</v>
+      </c>
+      <c r="D44" t="s">
+        <v>199</v>
+      </c>
+      <c r="E44" t="s">
+        <v>18</v>
+      </c>
+      <c r="F44" t="s">
+        <v>30</v>
+      </c>
+      <c r="G44" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
+        <v>209</v>
+      </c>
+      <c r="B45" t="s">
+        <v>210</v>
+      </c>
+      <c r="C45" t="s">
+        <v>211</v>
+      </c>
+      <c r="D45" t="s">
+        <v>212</v>
+      </c>
+      <c r="E45" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
+        <v>32</v>
+      </c>
+      <c r="B46" t="s">
+        <v>214</v>
+      </c>
+      <c r="C46" t="s">
+        <v>215</v>
+      </c>
+      <c r="D46" t="s">
+        <v>128</v>
+      </c>
+      <c r="E46" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="s">
+        <v>217</v>
+      </c>
+      <c r="B47" t="s">
+        <v>218</v>
+      </c>
+      <c r="C47" t="s">
+        <v>219</v>
+      </c>
+      <c r="D47" t="s">
+        <v>93</v>
+      </c>
+      <c r="E47" t="s">
+        <v>24</v>
+      </c>
+      <c r="F47" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" t="s">
+        <v>221</v>
+      </c>
+      <c r="B48" t="s">
+        <v>222</v>
+      </c>
+      <c r="C48" t="s">
+        <v>223</v>
+      </c>
+      <c r="D48" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E48" t="s">
+        <v>24</v>
+      </c>
+      <c r="F48" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="s">
+        <v>225</v>
+      </c>
+      <c r="B49" t="s">
+        <v>226</v>
+      </c>
+      <c r="C49" t="s">
+        <v>227</v>
+      </c>
+      <c r="D49" t="s">
+        <v>29</v>
+      </c>
+      <c r="E49" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" t="s">
+        <v>30</v>
+      </c>
+      <c r="G49" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
+        <v>229</v>
+      </c>
+      <c r="B50" t="s">
+        <v>230</v>
+      </c>
+      <c r="C50" t="s">
+        <v>231</v>
+      </c>
+      <c r="D50" t="s">
+        <v>232</v>
+      </c>
+      <c r="E50" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" t="s">
+        <v>30</v>
+      </c>
+      <c r="G50" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" t="s">
+        <v>234</v>
+      </c>
+      <c r="B51" t="s">
+        <v>235</v>
+      </c>
+      <c r="C51" t="s">
+        <v>236</v>
+      </c>
+      <c r="D51" t="s">
+        <v>237</v>
+      </c>
+      <c r="E51" t="s">
+        <v>24</v>
+      </c>
+      <c r="F51" t="s">
+        <v>30</v>
+      </c>
+      <c r="G51" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" t="s">
+        <v>239</v>
+      </c>
+      <c r="B52" t="s">
+        <v>240</v>
+      </c>
+      <c r="C52" t="s">
+        <v>241</v>
+      </c>
+      <c r="D52" t="s">
+        <v>232</v>
+      </c>
+      <c r="E52" t="s">
+        <v>24</v>
+      </c>
+      <c r="F52" t="s">
+        <v>30</v>
+      </c>
+      <c r="G52" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" t="s">
+        <v>243</v>
+      </c>
+      <c r="B53" t="s">
+        <v>244</v>
+      </c>
+      <c r="C53" t="s">
+        <v>207</v>
+      </c>
+      <c r="D53" t="s">
+        <v>23</v>
+      </c>
+      <c r="E53" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53" t="s">
+        <v>12</v>
+      </c>
+      <c r="G53" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" t="s">
+        <v>61</v>
+      </c>
+      <c r="B54" t="s">
+        <v>246</v>
+      </c>
+      <c r="C54" t="s">
+        <v>247</v>
+      </c>
+      <c r="D54" t="s">
+        <v>248</v>
+      </c>
+      <c r="E54" t="s">
+        <v>18</v>
+      </c>
+      <c r="F54" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" t="s">
+        <v>250</v>
+      </c>
+      <c r="B55" t="s">
+        <v>251</v>
+      </c>
+      <c r="C55" t="s">
+        <v>252</v>
+      </c>
+      <c r="D55" t="s">
+        <v>93</v>
+      </c>
+      <c r="E55" t="s">
+        <v>11</v>
+      </c>
+      <c r="F55" t="s">
+        <v>12</v>
+      </c>
+      <c r="G55" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" t="s">
+        <v>188</v>
+      </c>
+      <c r="B56" t="s">
+        <v>254</v>
+      </c>
+      <c r="C56" t="s">
+        <v>255</v>
+      </c>
+      <c r="D56" t="s">
+        <v>109</v>
+      </c>
+      <c r="E56" t="s">
+        <v>18</v>
+      </c>
+      <c r="F56" t="s">
+        <v>12</v>
+      </c>
+      <c r="G56" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" t="s">
+        <v>257</v>
+      </c>
+      <c r="B57" t="s">
+        <v>258</v>
+      </c>
+      <c r="C57" t="s">
+        <v>259</v>
+      </c>
+      <c r="D57" t="s">
+        <v>260</v>
+      </c>
+      <c r="E57" t="s">
+        <v>24</v>
+      </c>
+      <c r="F57" t="s">
+        <v>30</v>
+      </c>
+      <c r="G57" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" t="s">
+        <v>262</v>
+      </c>
+      <c r="B58" t="s">
+        <v>263</v>
+      </c>
+      <c r="C58" t="s">
+        <v>264</v>
+      </c>
+      <c r="D58" t="s">
+        <v>265</v>
+      </c>
+      <c r="E58" t="s">
+        <v>24</v>
+      </c>
+      <c r="F58" t="s">
+        <v>30</v>
+      </c>
+      <c r="G58" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" t="s">
+        <v>267</v>
+      </c>
+      <c r="B59" t="s">
+        <v>268</v>
+      </c>
+      <c r="C59" t="s">
+        <v>269</v>
+      </c>
+      <c r="D59" t="s">
+        <v>188</v>
+      </c>
+      <c r="E59" t="s">
+        <v>24</v>
+      </c>
+      <c r="F59" t="s">
+        <v>12</v>
+      </c>
+      <c r="G59" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" t="s">
+        <v>271</v>
+      </c>
+      <c r="B60" t="s">
+        <v>272</v>
+      </c>
+      <c r="C60" t="s">
+        <v>273</v>
+      </c>
+      <c r="D60" t="s">
+        <v>274</v>
+      </c>
+      <c r="E60" t="s">
+        <v>11</v>
+      </c>
+      <c r="F60" t="s">
+        <v>30</v>
+      </c>
+      <c r="G60" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" t="s">
+        <v>276</v>
+      </c>
+      <c r="B61" t="s">
+        <v>277</v>
+      </c>
+      <c r="C61" t="s">
+        <v>278</v>
+      </c>
+      <c r="D61" t="s">
+        <v>279</v>
+      </c>
+      <c r="E61" t="s">
+        <v>11</v>
+      </c>
+      <c r="F61" t="s">
+        <v>30</v>
+      </c>
+      <c r="G61" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" t="s">
+        <v>281</v>
+      </c>
+      <c r="B62" t="s">
+        <v>282</v>
+      </c>
+      <c r="C62" t="s">
+        <v>283</v>
+      </c>
+      <c r="D62" t="s">
+        <v>284</v>
+      </c>
+      <c r="E62" t="s">
+        <v>18</v>
+      </c>
+      <c r="F62" t="s">
+        <v>30</v>
+      </c>
+      <c r="G62" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" t="s">
+        <v>286</v>
+      </c>
+      <c r="B63" t="s">
+        <v>287</v>
+      </c>
+      <c r="C63" t="s">
+        <v>288</v>
+      </c>
+      <c r="D63" t="s">
+        <v>116</v>
+      </c>
+      <c r="E63" t="s">
+        <v>24</v>
+      </c>
+      <c r="F63" t="s">
+        <v>12</v>
+      </c>
+      <c r="G63" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" t="s">
+        <v>290</v>
+      </c>
+      <c r="B64" t="s">
+        <v>291</v>
+      </c>
+      <c r="C64" t="s">
+        <v>292</v>
+      </c>
+      <c r="D64" t="s">
+        <v>23</v>
+      </c>
+      <c r="E64" t="s">
+        <v>11</v>
+      </c>
+      <c r="F64" t="s">
+        <v>30</v>
+      </c>
+      <c r="G64" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" t="s">
+        <v>294</v>
+      </c>
+      <c r="B65" t="s">
+        <v>295</v>
+      </c>
+      <c r="C65" t="s">
+        <v>296</v>
+      </c>
+      <c r="D65" t="s">
+        <v>297</v>
+      </c>
+      <c r="E65" t="s">
+        <v>18</v>
+      </c>
+      <c r="F65" t="s">
+        <v>30</v>
+      </c>
+      <c r="G65" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" t="s">
+        <v>299</v>
+      </c>
+      <c r="B66" t="s">
+        <v>300</v>
+      </c>
+      <c r="C66" t="s">
+        <v>301</v>
+      </c>
+      <c r="D66" t="s">
+        <v>79</v>
+      </c>
+      <c r="E66" t="s">
+        <v>24</v>
+      </c>
+      <c r="F66" t="s">
+        <v>30</v>
+      </c>
+      <c r="G66" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" t="s">
+        <v>303</v>
+      </c>
+      <c r="B67" t="s">
+        <v>304</v>
+      </c>
+      <c r="C67" t="s">
+        <v>305</v>
+      </c>
+      <c r="D67" t="s">
+        <v>237</v>
+      </c>
+      <c r="E67" t="s">
+        <v>24</v>
+      </c>
+      <c r="F67" t="s">
+        <v>12</v>
+      </c>
+      <c r="G67" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" t="s">
+        <v>307</v>
+      </c>
+      <c r="B68" t="s">
+        <v>149</v>
+      </c>
+      <c r="C68" t="s">
+        <v>308</v>
+      </c>
+      <c r="D68" t="s">
+        <v>69</v>
+      </c>
+      <c r="E68" t="s">
+        <v>11</v>
+      </c>
+      <c r="F68" t="s">
+        <v>12</v>
+      </c>
+      <c r="G68" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" t="s">
+        <v>310</v>
+      </c>
+      <c r="B69" t="s">
+        <v>311</v>
+      </c>
+      <c r="C69" t="s">
+        <v>312</v>
+      </c>
+      <c r="D69" t="s">
+        <v>313</v>
+      </c>
+      <c r="E69" t="s">
+        <v>11</v>
+      </c>
+      <c r="F69" t="s">
+        <v>30</v>
+      </c>
+      <c r="G69" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" t="s">
+        <v>315</v>
+      </c>
+      <c r="B70" t="s">
+        <v>316</v>
+      </c>
+      <c r="C70" t="s">
+        <v>317</v>
+      </c>
+      <c r="D70" t="s">
+        <v>318</v>
+      </c>
+      <c r="E70" t="s">
+        <v>18</v>
+      </c>
+      <c r="F70" t="s">
+        <v>30</v>
+      </c>
+      <c r="G70" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" t="s">
+        <v>320</v>
+      </c>
+      <c r="B71" t="s">
+        <v>321</v>
+      </c>
+      <c r="C71" t="s">
+        <v>322</v>
+      </c>
+      <c r="D71" t="s">
+        <v>133</v>
+      </c>
+      <c r="E71" t="s">
+        <v>18</v>
+      </c>
+      <c r="F71" t="s">
+        <v>12</v>
+      </c>
+      <c r="G71" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" t="s">
+        <v>157</v>
+      </c>
+      <c r="B72" t="s">
+        <v>324</v>
+      </c>
+      <c r="C72" t="s">
+        <v>325</v>
+      </c>
+      <c r="D72" t="s">
+        <v>326</v>
+      </c>
+      <c r="E72" t="s">
+        <v>18</v>
+      </c>
+      <c r="F72" t="s">
+        <v>12</v>
+      </c>
+      <c r="G72" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" t="s">
+        <v>328</v>
+      </c>
+      <c r="B73" t="s">
+        <v>329</v>
+      </c>
+      <c r="C73" t="s">
+        <v>330</v>
+      </c>
+      <c r="D73" t="s">
+        <v>331</v>
+      </c>
+      <c r="E73" t="s">
+        <v>11</v>
+      </c>
+      <c r="F73" t="s">
+        <v>12</v>
+      </c>
+      <c r="G73" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" t="s">
+        <v>333</v>
+      </c>
+      <c r="B74" t="s">
+        <v>334</v>
+      </c>
+      <c r="C74" t="s">
+        <v>335</v>
+      </c>
+      <c r="D74" t="s">
+        <v>336</v>
+      </c>
+      <c r="E74" t="s">
+        <v>11</v>
+      </c>
+      <c r="F74" t="s">
+        <v>30</v>
+      </c>
+      <c r="G74" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" t="s">
+        <v>338</v>
+      </c>
+      <c r="B75" t="s">
+        <v>339</v>
+      </c>
+      <c r="C75" t="s">
+        <v>340</v>
+      </c>
+      <c r="D75" t="s">
+        <v>250</v>
+      </c>
+      <c r="E75" t="s">
+        <v>18</v>
+      </c>
+      <c r="F75" t="s">
+        <v>12</v>
+      </c>
+      <c r="G75" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" t="s">
+        <v>342</v>
+      </c>
+      <c r="B76" t="s">
+        <v>343</v>
+      </c>
+      <c r="C76" t="s">
+        <v>344</v>
+      </c>
+      <c r="D76" t="s">
+        <v>345</v>
+      </c>
+      <c r="E76" t="s">
+        <v>24</v>
+      </c>
+      <c r="F76" t="s">
+        <v>30</v>
+      </c>
+      <c r="G76" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" t="s">
+        <v>347</v>
+      </c>
+      <c r="B77" t="s">
+        <v>348</v>
+      </c>
+      <c r="C77" t="s">
+        <v>349</v>
+      </c>
+      <c r="D77" t="s">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="E77" t="s">
+        <v>18</v>
+      </c>
+      <c r="F77" t="s">
+        <v>30</v>
+      </c>
+      <c r="G77" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" t="s">
+        <v>119</v>
+      </c>
+      <c r="B78" t="s">
+        <v>351</v>
+      </c>
+      <c r="C78" t="s">
+        <v>352</v>
+      </c>
+      <c r="D78" t="s">
+        <v>353</v>
+      </c>
+      <c r="E78" t="s">
+        <v>18</v>
+      </c>
+      <c r="F78" t="s">
+        <v>30</v>
+      </c>
+      <c r="G78" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" t="s">
+        <v>196</v>
+      </c>
+      <c r="B79" t="s">
+        <v>140</v>
+      </c>
+      <c r="C79" t="s">
+        <v>355</v>
+      </c>
+      <c r="D79" t="s">
+        <v>260</v>
+      </c>
+      <c r="E79" t="s">
+        <v>18</v>
+      </c>
+      <c r="F79" t="s">
+        <v>30</v>
+      </c>
+      <c r="G79" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" t="s">
+        <v>357</v>
+      </c>
+      <c r="B80" t="s">
+        <v>358</v>
+      </c>
+      <c r="C80" t="s">
+        <v>359</v>
+      </c>
+      <c r="D80" t="s">
+        <v>69</v>
+      </c>
+      <c r="E80" t="s">
+        <v>24</v>
+      </c>
+      <c r="F80" t="s">
+        <v>30</v>
+      </c>
+      <c r="G80" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" t="s">
+        <v>361</v>
+      </c>
+      <c r="B81" t="s">
+        <v>362</v>
+      </c>
+      <c r="C81" t="s">
+        <v>363</v>
+      </c>
+      <c r="D81" t="s">
+        <v>364</v>
+      </c>
+      <c r="E81" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="F81" t="s">
+        <v>12</v>
+      </c>
+      <c r="G81" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" t="s">
+        <v>366</v>
+      </c>
+      <c r="B82" t="s">
+        <v>367</v>
+      </c>
+      <c r="C82" t="s">
+        <v>368</v>
+      </c>
+      <c r="D82" t="s">
+        <v>369</v>
+      </c>
+      <c r="E82" t="s">
+        <v>24</v>
+      </c>
+      <c r="F82" t="s">
+        <v>12</v>
+      </c>
+      <c r="G82" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" t="s">
+        <v>371</v>
+      </c>
+      <c r="B83" t="s">
+        <v>372</v>
+      </c>
+      <c r="C83" t="s">
+        <v>373</v>
+      </c>
+      <c r="D83" t="s">
+        <v>345</v>
+      </c>
+      <c r="E83" t="s">
+        <v>24</v>
+      </c>
+      <c r="F83" t="s">
+        <v>12</v>
+      </c>
+      <c r="G83" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" t="s">
+        <v>375</v>
+      </c>
+      <c r="B84" t="s">
+        <v>376</v>
+      </c>
+      <c r="C84" t="s">
+        <v>377</v>
+      </c>
+      <c r="D84" t="s">
+        <v>100</v>
+      </c>
+      <c r="E84" t="s">
+        <v>24</v>
+      </c>
+      <c r="F84" t="s">
+        <v>12</v>
+      </c>
+      <c r="G84" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" t="s">
+        <v>379</v>
+      </c>
+      <c r="B85" t="s">
+        <v>380</v>
+      </c>
+      <c r="C85" t="s">
+        <v>381</v>
+      </c>
+      <c r="D85" t="s">
+        <v>382</v>
+      </c>
+      <c r="E85" t="s">
+        <v>24</v>
+      </c>
+      <c r="F85" t="s">
+        <v>30</v>
+      </c>
+      <c r="G85" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" t="s">
+        <v>155</v>
+      </c>
+      <c r="B86" t="s">
+        <v>384</v>
+      </c>
+      <c r="C86" t="s">
+        <v>385</v>
+      </c>
+      <c r="D86" t="s">
+        <v>386</v>
+      </c>
+      <c r="E86" t="s">
+        <v>11</v>
+      </c>
+      <c r="F86" t="s">
+        <v>30</v>
+      </c>
+      <c r="G86" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" t="s">
+        <v>388</v>
+      </c>
+      <c r="B87" t="s">
+        <v>389</v>
+      </c>
+      <c r="C87" t="s">
+        <v>390</v>
+      </c>
+      <c r="D87" t="s">
+        <v>391</v>
+      </c>
+      <c r="E87" t="s">
+        <v>11</v>
+      </c>
+      <c r="F87" t="s">
+        <v>12</v>
+      </c>
+      <c r="G87" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" t="s">
+        <v>393</v>
+      </c>
+      <c r="B88" t="s">
+        <v>394</v>
+      </c>
+      <c r="C88" t="s">
+        <v>395</v>
+      </c>
+      <c r="D88" t="s">
+        <v>237</v>
+      </c>
+      <c r="E88" t="s">
+        <v>11</v>
+      </c>
+      <c r="F88" t="s">
+        <v>12</v>
+      </c>
+      <c r="G88" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" t="s">
+        <v>397</v>
+      </c>
+      <c r="B89" t="s">
+        <v>398</v>
+      </c>
+      <c r="C89" t="s">
+        <v>399</v>
+      </c>
+      <c r="D89" t="s">
+        <v>157</v>
+      </c>
+      <c r="E89" t="s">
+        <v>11</v>
+      </c>
+      <c r="F89" t="s">
+        <v>12</v>
+      </c>
+      <c r="G89" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" t="s">
+        <v>265</v>
+      </c>
+      <c r="B90" t="s">
+        <v>401</v>
+      </c>
+      <c r="C90" t="s">
+        <v>402</v>
+      </c>
+      <c r="D90" t="s">
+        <v>403</v>
+      </c>
+      <c r="E90" t="s">
+        <v>11</v>
+      </c>
+      <c r="F90" t="s">
+        <v>30</v>
+      </c>
+      <c r="G90" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" t="s">
+        <v>201</v>
+      </c>
+      <c r="B91" t="s">
+        <v>405</v>
+      </c>
+      <c r="C91" t="s">
+        <v>406</v>
+      </c>
+      <c r="D91" t="s">
+        <v>407</v>
+      </c>
+      <c r="E91" t="s">
         <v>18</v>
       </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="F91" t="s">
+        <v>12</v>
+      </c>
+      <c r="G91" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" t="s">
+        <v>409</v>
+      </c>
+      <c r="B92" t="s">
+        <v>410</v>
+      </c>
+      <c r="C92" t="s">
+        <v>411</v>
+      </c>
+      <c r="D92" t="s">
+        <v>199</v>
+      </c>
+      <c r="E92" t="s">
+        <v>18</v>
+      </c>
+      <c r="F92" t="s">
+        <v>30</v>
+      </c>
+      <c r="G92" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" t="s">
+        <v>413</v>
+      </c>
+      <c r="B93" t="s">
+        <v>414</v>
+      </c>
+      <c r="C93" t="s">
+        <v>415</v>
+      </c>
+      <c r="D93" t="s">
+        <v>279</v>
+      </c>
+      <c r="E93" t="s">
+        <v>11</v>
+      </c>
+      <c r="F93" t="s">
+        <v>12</v>
+      </c>
+      <c r="G93" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" t="s">
+        <v>417</v>
+      </c>
+      <c r="B94" t="s">
+        <v>418</v>
+      </c>
+      <c r="C94" t="s">
+        <v>419</v>
+      </c>
+      <c r="D94" t="s">
+        <v>274</v>
+      </c>
+      <c r="E94" t="s">
+        <v>18</v>
+      </c>
+      <c r="F94" t="s">
+        <v>12</v>
+      </c>
+      <c r="G94" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" t="s">
+        <v>421</v>
+      </c>
+      <c r="B95" t="s">
+        <v>422</v>
+      </c>
+      <c r="C95" t="s">
+        <v>423</v>
+      </c>
+      <c r="D95" t="s">
+        <v>100</v>
+      </c>
+      <c r="E95" t="s">
+        <v>11</v>
+      </c>
+      <c r="F95" t="s">
+        <v>30</v>
+      </c>
+      <c r="G95" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" t="s">
+        <v>425</v>
+      </c>
+      <c r="B96" t="s">
+        <v>426</v>
+      </c>
+      <c r="C96" t="s">
+        <v>427</v>
+      </c>
+      <c r="D96" t="s">
+        <v>428</v>
+      </c>
+      <c r="E96" t="s">
         <v>24</v>
       </c>
-      <c r="G9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" t="s">
-        <v>10</v>
+      <c r="F96" t="s">
+        <v>30</v>
+      </c>
+      <c r="G96" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" t="s">
+        <v>430</v>
+      </c>
+      <c r="B97" t="s">
+        <v>431</v>
+      </c>
+      <c r="C97" t="s">
+        <v>312</v>
+      </c>
+      <c r="D97" t="s">
+        <v>232</v>
+      </c>
+      <c r="E97" t="s">
+        <v>24</v>
+      </c>
+      <c r="F97" t="s">
+        <v>30</v>
+      </c>
+      <c r="G97" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" t="s">
+        <v>56</v>
+      </c>
+      <c r="B98" t="s">
+        <v>433</v>
+      </c>
+      <c r="C98" t="s">
+        <v>434</v>
+      </c>
+      <c r="D98" t="s">
+        <v>232</v>
+      </c>
+      <c r="E98" t="s">
+        <v>18</v>
+      </c>
+      <c r="F98" t="s">
+        <v>30</v>
+      </c>
+      <c r="G98" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" t="s">
+        <v>366</v>
+      </c>
+      <c r="B99" t="s">
+        <v>436</v>
+      </c>
+      <c r="C99" t="s">
+        <v>437</v>
+      </c>
+      <c r="D99" t="s">
+        <v>345</v>
+      </c>
+      <c r="E99" t="s">
+        <v>11</v>
+      </c>
+      <c r="F99" t="s">
+        <v>30</v>
+      </c>
+      <c r="G99" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" t="s">
+        <v>439</v>
+      </c>
+      <c r="B100" t="s">
+        <v>440</v>
+      </c>
+      <c r="C100" t="s">
+        <v>441</v>
+      </c>
+      <c r="D100" t="s">
+        <v>103</v>
+      </c>
+      <c r="E100" t="s">
+        <v>18</v>
+      </c>
+      <c r="F100" t="s">
+        <v>12</v>
+      </c>
+      <c r="G100" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" t="s">
+        <v>443</v>
+      </c>
+      <c r="B101" t="s">
+        <v>444</v>
+      </c>
+      <c r="C101" t="s">
+        <v>445</v>
+      </c>
+      <c r="D101" t="s">
+        <v>169</v>
+      </c>
+      <c r="E101" t="s">
+        <v>18</v>
+      </c>
+      <c r="F101" t="s">
+        <v>12</v>
+      </c>
+      <c r="G101" t="s">
+        <v>446</v>
       </c>
     </row>
   </sheetData>
@@ -740,12 +4088,12 @@
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="2:10 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1025" min="1" style="1" width="11.5663265306122"/>
+    <col customWidth="1" max="1025" min="1" style="1" width="11.3418367346939"/>
   </cols>
   <sheetData/>
   <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
@@ -771,12 +4119,12 @@
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="2:10 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1025" min="1" style="1" width="11.5663265306122"/>
+    <col customWidth="1" max="1025" min="1" style="1" width="11.3418367346939"/>
   </cols>
   <sheetData/>
   <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>

--- a/logs/Enrollment_Log.xlsx
+++ b/logs/Enrollment_Log.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="829">
   <si>
     <t>Subject_ID</t>
   </si>
@@ -1358,6 +1358,1152 @@
   </si>
   <si>
     <t>iwk</t>
+  </si>
+  <si>
+    <t>358</t>
+  </si>
+  <si>
+    <t>4/3/2016</t>
+  </si>
+  <si>
+    <t>6:11</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>wly</t>
+  </si>
+  <si>
+    <t>523</t>
+  </si>
+  <si>
+    <t>9/19/2014</t>
+  </si>
+  <si>
+    <t>14:28</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>cst</t>
+  </si>
+  <si>
+    <t>481</t>
+  </si>
+  <si>
+    <t>12/19/2014</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>fyw</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>1/18/2015</t>
+  </si>
+  <si>
+    <t>1:46</t>
+  </si>
+  <si>
+    <t>xdf</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>6/28/2015</t>
+  </si>
+  <si>
+    <t>9:33</t>
+  </si>
+  <si>
+    <t>dzs</t>
+  </si>
+  <si>
+    <t>444</t>
+  </si>
+  <si>
+    <t>7/9/2012</t>
+  </si>
+  <si>
+    <t>21:41</t>
+  </si>
+  <si>
+    <t>cwk</t>
+  </si>
+  <si>
+    <t>321</t>
+  </si>
+  <si>
+    <t>1/6/2014</t>
+  </si>
+  <si>
+    <t>22:51</t>
+  </si>
+  <si>
+    <t>ynp</t>
+  </si>
+  <si>
+    <t>7/23/2016</t>
+  </si>
+  <si>
+    <t>6:27</t>
+  </si>
+  <si>
+    <t>bwe</t>
+  </si>
+  <si>
+    <t>187</t>
+  </si>
+  <si>
+    <t>4/27/2012</t>
+  </si>
+  <si>
+    <t>19:37</t>
+  </si>
+  <si>
+    <t>qav</t>
+  </si>
+  <si>
+    <t>768</t>
+  </si>
+  <si>
+    <t>7/2/2014</t>
+  </si>
+  <si>
+    <t>3:37</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>bqh</t>
+  </si>
+  <si>
+    <t>624</t>
+  </si>
+  <si>
+    <t>2/10/2015</t>
+  </si>
+  <si>
+    <t>11:56</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>rgm</t>
+  </si>
+  <si>
+    <t>816</t>
+  </si>
+  <si>
+    <t>12/13/2016</t>
+  </si>
+  <si>
+    <t>20:34</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>oej</t>
+  </si>
+  <si>
+    <t>327</t>
+  </si>
+  <si>
+    <t>12/24/2014</t>
+  </si>
+  <si>
+    <t>xph</t>
+  </si>
+  <si>
+    <t>786</t>
+  </si>
+  <si>
+    <t>4/20/2013</t>
+  </si>
+  <si>
+    <t>12:25</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>vny</t>
+  </si>
+  <si>
+    <t>485</t>
+  </si>
+  <si>
+    <t>9/22/2013</t>
+  </si>
+  <si>
+    <t>2:47</t>
+  </si>
+  <si>
+    <t>qhn</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>1/21/2015</t>
+  </si>
+  <si>
+    <t>21:11</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>nho</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10/24/2016</t>
+  </si>
+  <si>
+    <t>13:6</t>
+  </si>
+  <si>
+    <t>lef</t>
+  </si>
+  <si>
+    <t>566</t>
+  </si>
+  <si>
+    <t>8/17/2012</t>
+  </si>
+  <si>
+    <t>22:48</t>
+  </si>
+  <si>
+    <t>zqs</t>
+  </si>
+  <si>
+    <t>1/26/2016</t>
+  </si>
+  <si>
+    <t>9:21</t>
+  </si>
+  <si>
+    <t>mph</t>
+  </si>
+  <si>
+    <t>690</t>
+  </si>
+  <si>
+    <t>4/13/2015</t>
+  </si>
+  <si>
+    <t>7:58</t>
+  </si>
+  <si>
+    <t>pdz</t>
+  </si>
+  <si>
+    <t>927</t>
+  </si>
+  <si>
+    <t>4/16/2015</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>tzu</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>12/11/2013</t>
+  </si>
+  <si>
+    <t>20:12</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>jqw</t>
+  </si>
+  <si>
+    <t>7/10/2013</t>
+  </si>
+  <si>
+    <t>21:53</t>
+  </si>
+  <si>
+    <t>bam</t>
+  </si>
+  <si>
+    <t>188</t>
+  </si>
+  <si>
+    <t>10/4/2013</t>
+  </si>
+  <si>
+    <t>13:2</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>jhx</t>
+  </si>
+  <si>
+    <t>2/18/2016</t>
+  </si>
+  <si>
+    <t>20:13</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>lyk</t>
+  </si>
+  <si>
+    <t>561</t>
+  </si>
+  <si>
+    <t>3/20/2015</t>
+  </si>
+  <si>
+    <t>18:43</t>
+  </si>
+  <si>
+    <t>cuu</t>
+  </si>
+  <si>
+    <t>1/23/2012</t>
+  </si>
+  <si>
+    <t>19:55</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>qfm</t>
+  </si>
+  <si>
+    <t>492</t>
+  </si>
+  <si>
+    <t>9/8/2012</t>
+  </si>
+  <si>
+    <t>18:12</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>pmq</t>
+  </si>
+  <si>
+    <t>7/24/2013</t>
+  </si>
+  <si>
+    <t>23:37</t>
+  </si>
+  <si>
+    <t>vae</t>
+  </si>
+  <si>
+    <t>905</t>
+  </si>
+  <si>
+    <t>6/16/2013</t>
+  </si>
+  <si>
+    <t>4:49</t>
+  </si>
+  <si>
+    <t>ars</t>
+  </si>
+  <si>
+    <t>856</t>
+  </si>
+  <si>
+    <t>9/27/2015</t>
+  </si>
+  <si>
+    <t>3:11</t>
+  </si>
+  <si>
+    <t>gpn</t>
+  </si>
+  <si>
+    <t>627</t>
+  </si>
+  <si>
+    <t>6/9/2015</t>
+  </si>
+  <si>
+    <t>0:26</t>
+  </si>
+  <si>
+    <t>gna</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>1/3/2013</t>
+  </si>
+  <si>
+    <t>19:35</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>azq</t>
+  </si>
+  <si>
+    <t>259</t>
+  </si>
+  <si>
+    <t>1/23/2016</t>
+  </si>
+  <si>
+    <t>10:4</t>
+  </si>
+  <si>
+    <t>pgu</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>12/25/2013</t>
+  </si>
+  <si>
+    <t>14:3</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>rci</t>
+  </si>
+  <si>
+    <t>942</t>
+  </si>
+  <si>
+    <t>2/2/2012</t>
+  </si>
+  <si>
+    <t>7:22</t>
+  </si>
+  <si>
+    <t>elp</t>
+  </si>
+  <si>
+    <t>822</t>
+  </si>
+  <si>
+    <t>12/4/2014</t>
+  </si>
+  <si>
+    <t>17:37</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>ybf</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>3:34</t>
+  </si>
+  <si>
+    <t>ihk</t>
+  </si>
+  <si>
+    <t>874</t>
+  </si>
+  <si>
+    <t>18:4</t>
+  </si>
+  <si>
+    <t>dcr</t>
+  </si>
+  <si>
+    <t>253</t>
+  </si>
+  <si>
+    <t>1/23/2014</t>
+  </si>
+  <si>
+    <t>8:6</t>
+  </si>
+  <si>
+    <t>ols</t>
+  </si>
+  <si>
+    <t>241</t>
+  </si>
+  <si>
+    <t>3/7/2015</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>uzw</t>
+  </si>
+  <si>
+    <t>342</t>
+  </si>
+  <si>
+    <t>11/16/2014</t>
+  </si>
+  <si>
+    <t>16:52</t>
+  </si>
+  <si>
+    <t>qfr</t>
+  </si>
+  <si>
+    <t>570</t>
+  </si>
+  <si>
+    <t>10/23/2013</t>
+  </si>
+  <si>
+    <t>23:54</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>cnr</t>
+  </si>
+  <si>
+    <t>712</t>
+  </si>
+  <si>
+    <t>4/4/2012</t>
+  </si>
+  <si>
+    <t>21:49</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>gam</t>
+  </si>
+  <si>
+    <t>901</t>
+  </si>
+  <si>
+    <t>4/13/2012</t>
+  </si>
+  <si>
+    <t>6:54</t>
+  </si>
+  <si>
+    <t>hif</t>
+  </si>
+  <si>
+    <t>9/18/2016</t>
+  </si>
+  <si>
+    <t>2:30</t>
+  </si>
+  <si>
+    <t>wmd</t>
+  </si>
+  <si>
+    <t>591</t>
+  </si>
+  <si>
+    <t>5/12/2014</t>
+  </si>
+  <si>
+    <t>18:54</t>
+  </si>
+  <si>
+    <t>rhn</t>
+  </si>
+  <si>
+    <t>918</t>
+  </si>
+  <si>
+    <t>5/6/2013</t>
+  </si>
+  <si>
+    <t>884</t>
+  </si>
+  <si>
+    <t>11/23/2013</t>
+  </si>
+  <si>
+    <t>23:3</t>
+  </si>
+  <si>
+    <t>zwd</t>
+  </si>
+  <si>
+    <t>557</t>
+  </si>
+  <si>
+    <t>8/11/2013</t>
+  </si>
+  <si>
+    <t>20:17</t>
+  </si>
+  <si>
+    <t>yqu</t>
+  </si>
+  <si>
+    <t>216</t>
+  </si>
+  <si>
+    <t>5/15/2016</t>
+  </si>
+  <si>
+    <t>lvs</t>
+  </si>
+  <si>
+    <t>978</t>
+  </si>
+  <si>
+    <t>4/10/2014</t>
+  </si>
+  <si>
+    <t>8:5</t>
+  </si>
+  <si>
+    <t>fdx</t>
+  </si>
+  <si>
+    <t>900</t>
+  </si>
+  <si>
+    <t>12/4/2015</t>
+  </si>
+  <si>
+    <t>ffm</t>
+  </si>
+  <si>
+    <t>932</t>
+  </si>
+  <si>
+    <t>5/21/2015</t>
+  </si>
+  <si>
+    <t>9:56</t>
+  </si>
+  <si>
+    <t>kur</t>
+  </si>
+  <si>
+    <t>410</t>
+  </si>
+  <si>
+    <t>20:11</t>
+  </si>
+  <si>
+    <t>ohr</t>
+  </si>
+  <si>
+    <t>1/6/2015</t>
+  </si>
+  <si>
+    <t>7:17</t>
+  </si>
+  <si>
+    <t>bxj</t>
+  </si>
+  <si>
+    <t>242</t>
+  </si>
+  <si>
+    <t>4/5/2012</t>
+  </si>
+  <si>
+    <t>23:20</t>
+  </si>
+  <si>
+    <t>ncv</t>
+  </si>
+  <si>
+    <t>972</t>
+  </si>
+  <si>
+    <t>7/27/2016</t>
+  </si>
+  <si>
+    <t>cku</t>
+  </si>
+  <si>
+    <t>12/18/2013</t>
+  </si>
+  <si>
+    <t>23:31</t>
+  </si>
+  <si>
+    <t>gcv</t>
+  </si>
+  <si>
+    <t>422</t>
+  </si>
+  <si>
+    <t>1/5/2016</t>
+  </si>
+  <si>
+    <t>17:50</t>
+  </si>
+  <si>
+    <t>ofm</t>
+  </si>
+  <si>
+    <t>16:1</t>
+  </si>
+  <si>
+    <t>otl</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>9/8/2015</t>
+  </si>
+  <si>
+    <t>5:2</t>
+  </si>
+  <si>
+    <t>qnn</t>
+  </si>
+  <si>
+    <t>5/20/2013</t>
+  </si>
+  <si>
+    <t>7:55</t>
+  </si>
+  <si>
+    <t>bia</t>
+  </si>
+  <si>
+    <t>12/8/2012</t>
+  </si>
+  <si>
+    <t>23:42</t>
+  </si>
+  <si>
+    <t>rkv</t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>9/9/2012</t>
+  </si>
+  <si>
+    <t>23:30</t>
+  </si>
+  <si>
+    <t>ozo</t>
+  </si>
+  <si>
+    <t>6/20/2016</t>
+  </si>
+  <si>
+    <t>4:27</t>
+  </si>
+  <si>
+    <t>can</t>
+  </si>
+  <si>
+    <t>3/8/2012</t>
+  </si>
+  <si>
+    <t>1:27</t>
+  </si>
+  <si>
+    <t>nqx</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>6/10/2016</t>
+  </si>
+  <si>
+    <t>18:11</t>
+  </si>
+  <si>
+    <t>oag</t>
+  </si>
+  <si>
+    <t>0:32</t>
+  </si>
+  <si>
+    <t>kue</t>
+  </si>
+  <si>
+    <t>946</t>
+  </si>
+  <si>
+    <t>11/16/2015</t>
+  </si>
+  <si>
+    <t>14:35</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>gwf</t>
+  </si>
+  <si>
+    <t>382</t>
+  </si>
+  <si>
+    <t>6/25/2014</t>
+  </si>
+  <si>
+    <t>9:22</t>
+  </si>
+  <si>
+    <t>qkb</t>
+  </si>
+  <si>
+    <t>921</t>
+  </si>
+  <si>
+    <t>9/12/2016</t>
+  </si>
+  <si>
+    <t>17:59</t>
+  </si>
+  <si>
+    <t>ukg</t>
+  </si>
+  <si>
+    <t>2/4/2015</t>
+  </si>
+  <si>
+    <t>8:45</t>
+  </si>
+  <si>
+    <t>hfi</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>2/21/2012</t>
+  </si>
+  <si>
+    <t>22:44</t>
+  </si>
+  <si>
+    <t>vfu</t>
+  </si>
+  <si>
+    <t>324</t>
+  </si>
+  <si>
+    <t>8/1/2015</t>
+  </si>
+  <si>
+    <t>5:43</t>
+  </si>
+  <si>
+    <t>gin</t>
+  </si>
+  <si>
+    <t>193</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>ckw</t>
+  </si>
+  <si>
+    <t>677</t>
+  </si>
+  <si>
+    <t>7/8/2012</t>
+  </si>
+  <si>
+    <t>10:14</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>hyp</t>
+  </si>
+  <si>
+    <t>6/17/2016</t>
+  </si>
+  <si>
+    <t>12:9</t>
+  </si>
+  <si>
+    <t>iyo</t>
+  </si>
+  <si>
+    <t>931</t>
+  </si>
+  <si>
+    <t>21:31</t>
+  </si>
+  <si>
+    <t>wsl</t>
+  </si>
+  <si>
+    <t>405</t>
+  </si>
+  <si>
+    <t>8/28/2016</t>
+  </si>
+  <si>
+    <t>8:13</t>
+  </si>
+  <si>
+    <t>bpr</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>5/2/2013</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>kbp</t>
+  </si>
+  <si>
+    <t>797</t>
+  </si>
+  <si>
+    <t>8/14/2015</t>
+  </si>
+  <si>
+    <t>9:39</t>
+  </si>
+  <si>
+    <t>evy</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>10/20/2014</t>
+  </si>
+  <si>
+    <t>23:51</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>ljd</t>
+  </si>
+  <si>
+    <t>7/19/2015</t>
+  </si>
+  <si>
+    <t>15:58</t>
+  </si>
+  <si>
+    <t>pba</t>
+  </si>
+  <si>
+    <t>902</t>
+  </si>
+  <si>
+    <t>5/3/2012</t>
+  </si>
+  <si>
+    <t>22:15</t>
+  </si>
+  <si>
+    <t>bbn</t>
+  </si>
+  <si>
+    <t>5:18</t>
+  </si>
+  <si>
+    <t>ajj</t>
+  </si>
+  <si>
+    <t>878</t>
+  </si>
+  <si>
+    <t>14:8</t>
+  </si>
+  <si>
+    <t>dkh</t>
+  </si>
+  <si>
+    <t>610</t>
+  </si>
+  <si>
+    <t>12/5/2012</t>
+  </si>
+  <si>
+    <t>20:15</t>
+  </si>
+  <si>
+    <t>nmg</t>
+  </si>
+  <si>
+    <t>799</t>
+  </si>
+  <si>
+    <t>5/5/2014</t>
+  </si>
+  <si>
+    <t>15:35</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>pyi</t>
+  </si>
+  <si>
+    <t>387</t>
+  </si>
+  <si>
+    <t>4/7/2012</t>
+  </si>
+  <si>
+    <t>11:33</t>
+  </si>
+  <si>
+    <t>xky</t>
+  </si>
+  <si>
+    <t>573</t>
+  </si>
+  <si>
+    <t>3/27/2015</t>
+  </si>
+  <si>
+    <t>ckl</t>
+  </si>
+  <si>
+    <t>341</t>
+  </si>
+  <si>
+    <t>11/9/2016</t>
+  </si>
+  <si>
+    <t>lqn</t>
+  </si>
+  <si>
+    <t>480</t>
+  </si>
+  <si>
+    <t>15:37</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>dgk</t>
+  </si>
+  <si>
+    <t>681</t>
+  </si>
+  <si>
+    <t>8:31</t>
+  </si>
+  <si>
+    <t>gre</t>
+  </si>
+  <si>
+    <t>5/1/2014</t>
+  </si>
+  <si>
+    <t>ugn</t>
+  </si>
+  <si>
+    <t>909</t>
+  </si>
+  <si>
+    <t>7/22/2013</t>
+  </si>
+  <si>
+    <t>dlz</t>
+  </si>
+  <si>
+    <t>554</t>
+  </si>
+  <si>
+    <t>4/4/2013</t>
+  </si>
+  <si>
+    <t>13:13</t>
+  </si>
+  <si>
+    <t>ncn</t>
+  </si>
+  <si>
+    <t>496</t>
+  </si>
+  <si>
+    <t>12/26/2015</t>
+  </si>
+  <si>
+    <t>hsy</t>
+  </si>
+  <si>
+    <t>339</t>
+  </si>
+  <si>
+    <t>5/5/2013</t>
+  </si>
+  <si>
+    <t>12:40</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>qoj</t>
+  </si>
+  <si>
+    <t>631</t>
+  </si>
+  <si>
+    <t>10/1/2013</t>
+  </si>
+  <si>
+    <t>2:11</t>
+  </si>
+  <si>
+    <t>als</t>
   </si>
 </sst>
 </file>
@@ -1724,7 +2870,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G101"/>
+  <dimension ref="A1:G201"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="2:10"/>
@@ -4062,6 +5208,2306 @@
       </c>
       <c r="G101" t="s">
         <v>446</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" t="s">
+        <v>447</v>
+      </c>
+      <c r="B102" t="s">
+        <v>448</v>
+      </c>
+      <c r="C102" t="s">
+        <v>449</v>
+      </c>
+      <c r="D102" t="s">
+        <v>450</v>
+      </c>
+      <c r="E102" t="s">
+        <v>11</v>
+      </c>
+      <c r="F102" t="s">
+        <v>12</v>
+      </c>
+      <c r="G102" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" t="s">
+        <v>452</v>
+      </c>
+      <c r="B103" t="s">
+        <v>453</v>
+      </c>
+      <c r="C103" t="s">
+        <v>454</v>
+      </c>
+      <c r="D103" t="s">
+        <v>455</v>
+      </c>
+      <c r="E103" t="s">
+        <v>11</v>
+      </c>
+      <c r="F103" t="s">
+        <v>12</v>
+      </c>
+      <c r="G103" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" t="s">
+        <v>457</v>
+      </c>
+      <c r="B104" t="s">
+        <v>458</v>
+      </c>
+      <c r="C104" t="s">
+        <v>449</v>
+      </c>
+      <c r="D104" t="s">
+        <v>459</v>
+      </c>
+      <c r="E104" t="s">
+        <v>11</v>
+      </c>
+      <c r="F104" t="s">
+        <v>12</v>
+      </c>
+      <c r="G104" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" t="s">
+        <v>461</v>
+      </c>
+      <c r="B105" t="s">
+        <v>462</v>
+      </c>
+      <c r="C105" t="s">
+        <v>463</v>
+      </c>
+      <c r="D105" t="s">
+        <v>138</v>
+      </c>
+      <c r="E105" t="s">
+        <v>18</v>
+      </c>
+      <c r="F105" t="s">
+        <v>30</v>
+      </c>
+      <c r="G105" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" t="s">
+        <v>465</v>
+      </c>
+      <c r="B106" t="s">
+        <v>466</v>
+      </c>
+      <c r="C106" t="s">
+        <v>467</v>
+      </c>
+      <c r="D106" t="s">
+        <v>155</v>
+      </c>
+      <c r="E106" t="s">
+        <v>11</v>
+      </c>
+      <c r="F106" t="s">
+        <v>12</v>
+      </c>
+      <c r="G106" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" t="s">
+        <v>469</v>
+      </c>
+      <c r="B107" t="s">
+        <v>470</v>
+      </c>
+      <c r="C107" t="s">
+        <v>471</v>
+      </c>
+      <c r="D107" t="s">
+        <v>279</v>
+      </c>
+      <c r="E107" t="s">
+        <v>24</v>
+      </c>
+      <c r="F107" t="s">
+        <v>30</v>
+      </c>
+      <c r="G107" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" t="s">
+        <v>473</v>
+      </c>
+      <c r="B108" t="s">
+        <v>474</v>
+      </c>
+      <c r="C108" t="s">
+        <v>475</v>
+      </c>
+      <c r="D108" t="s">
+        <v>331</v>
+      </c>
+      <c r="E108" t="s">
+        <v>18</v>
+      </c>
+      <c r="F108" t="s">
+        <v>12</v>
+      </c>
+      <c r="G108" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" t="s">
+        <v>318</v>
+      </c>
+      <c r="B109" t="s">
+        <v>477</v>
+      </c>
+      <c r="C109" t="s">
+        <v>478</v>
+      </c>
+      <c r="D109" t="s">
+        <v>59</v>
+      </c>
+      <c r="E109" t="s">
+        <v>18</v>
+      </c>
+      <c r="F109" t="s">
+        <v>12</v>
+      </c>
+      <c r="G109" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" t="s">
+        <v>480</v>
+      </c>
+      <c r="B110" t="s">
+        <v>481</v>
+      </c>
+      <c r="C110" t="s">
+        <v>482</v>
+      </c>
+      <c r="D110" t="s">
+        <v>250</v>
+      </c>
+      <c r="E110" t="s">
+        <v>18</v>
+      </c>
+      <c r="F110" t="s">
+        <v>30</v>
+      </c>
+      <c r="G110" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" t="s">
+        <v>484</v>
+      </c>
+      <c r="B111" t="s">
+        <v>485</v>
+      </c>
+      <c r="C111" t="s">
+        <v>486</v>
+      </c>
+      <c r="D111" t="s">
+        <v>487</v>
+      </c>
+      <c r="E111" t="s">
+        <v>24</v>
+      </c>
+      <c r="F111" t="s">
+        <v>12</v>
+      </c>
+      <c r="G111" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" t="s">
+        <v>489</v>
+      </c>
+      <c r="B112" t="s">
+        <v>490</v>
+      </c>
+      <c r="C112" t="s">
+        <v>491</v>
+      </c>
+      <c r="D112" t="s">
+        <v>492</v>
+      </c>
+      <c r="E112" t="s">
+        <v>18</v>
+      </c>
+      <c r="F112" t="s">
+        <v>30</v>
+      </c>
+      <c r="G112" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" t="s">
+        <v>494</v>
+      </c>
+      <c r="B113" t="s">
+        <v>495</v>
+      </c>
+      <c r="C113" t="s">
+        <v>496</v>
+      </c>
+      <c r="D113" t="s">
+        <v>497</v>
+      </c>
+      <c r="E113" t="s">
+        <v>11</v>
+      </c>
+      <c r="F113" t="s">
+        <v>30</v>
+      </c>
+      <c r="G113" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" t="s">
+        <v>499</v>
+      </c>
+      <c r="B114" t="s">
+        <v>500</v>
+      </c>
+      <c r="C114" t="s">
+        <v>182</v>
+      </c>
+      <c r="D114" t="s">
+        <v>17</v>
+      </c>
+      <c r="E114" t="s">
+        <v>18</v>
+      </c>
+      <c r="F114" t="s">
+        <v>12</v>
+      </c>
+      <c r="G114" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" t="s">
+        <v>502</v>
+      </c>
+      <c r="B115" t="s">
+        <v>503</v>
+      </c>
+      <c r="C115" t="s">
+        <v>504</v>
+      </c>
+      <c r="D115" t="s">
+        <v>505</v>
+      </c>
+      <c r="E115" t="s">
+        <v>24</v>
+      </c>
+      <c r="F115" t="s">
+        <v>12</v>
+      </c>
+      <c r="G115" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" t="s">
+        <v>507</v>
+      </c>
+      <c r="B116" t="s">
+        <v>508</v>
+      </c>
+      <c r="C116" t="s">
+        <v>509</v>
+      </c>
+      <c r="D116" t="s">
+        <v>64</v>
+      </c>
+      <c r="E116" t="s">
+        <v>18</v>
+      </c>
+      <c r="F116" t="s">
+        <v>30</v>
+      </c>
+      <c r="G116" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" t="s">
+        <v>511</v>
+      </c>
+      <c r="B117" t="s">
+        <v>512</v>
+      </c>
+      <c r="C117" t="s">
+        <v>513</v>
+      </c>
+      <c r="D117" t="s">
+        <v>514</v>
+      </c>
+      <c r="E117" t="s">
+        <v>24</v>
+      </c>
+      <c r="F117" t="s">
+        <v>12</v>
+      </c>
+      <c r="G117" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" t="s">
+        <v>516</v>
+      </c>
+      <c r="B118" t="s">
+        <v>517</v>
+      </c>
+      <c r="C118" t="s">
+        <v>518</v>
+      </c>
+      <c r="D118" t="s">
+        <v>403</v>
+      </c>
+      <c r="E118" t="s">
+        <v>24</v>
+      </c>
+      <c r="F118" t="s">
+        <v>30</v>
+      </c>
+      <c r="G118" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" t="s">
+        <v>520</v>
+      </c>
+      <c r="B119" t="s">
+        <v>521</v>
+      </c>
+      <c r="C119" t="s">
+        <v>522</v>
+      </c>
+      <c r="D119" t="s">
+        <v>148</v>
+      </c>
+      <c r="E119" t="s">
+        <v>24</v>
+      </c>
+      <c r="F119" t="s">
+        <v>30</v>
+      </c>
+      <c r="G119" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" t="s">
+        <v>143</v>
+      </c>
+      <c r="B120" t="s">
+        <v>524</v>
+      </c>
+      <c r="C120" t="s">
+        <v>525</v>
+      </c>
+      <c r="D120" t="s">
+        <v>169</v>
+      </c>
+      <c r="E120" t="s">
+        <v>18</v>
+      </c>
+      <c r="F120" t="s">
+        <v>12</v>
+      </c>
+      <c r="G120" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" t="s">
+        <v>527</v>
+      </c>
+      <c r="B121" t="s">
+        <v>528</v>
+      </c>
+      <c r="C121" t="s">
+        <v>529</v>
+      </c>
+      <c r="D121" t="s">
+        <v>364</v>
+      </c>
+      <c r="E121" t="s">
+        <v>18</v>
+      </c>
+      <c r="F121" t="s">
+        <v>30</v>
+      </c>
+      <c r="G121" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" t="s">
+        <v>531</v>
+      </c>
+      <c r="B122" t="s">
+        <v>532</v>
+      </c>
+      <c r="C122" t="s">
+        <v>533</v>
+      </c>
+      <c r="D122" t="s">
+        <v>157</v>
+      </c>
+      <c r="E122" t="s">
+        <v>24</v>
+      </c>
+      <c r="F122" t="s">
+        <v>12</v>
+      </c>
+      <c r="G122" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" t="s">
+        <v>535</v>
+      </c>
+      <c r="B123" t="s">
+        <v>536</v>
+      </c>
+      <c r="C123" t="s">
+        <v>537</v>
+      </c>
+      <c r="D123" t="s">
+        <v>538</v>
+      </c>
+      <c r="E123" t="s">
+        <v>18</v>
+      </c>
+      <c r="F123" t="s">
+        <v>30</v>
+      </c>
+      <c r="G123" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" t="s">
+        <v>201</v>
+      </c>
+      <c r="B124" t="s">
+        <v>540</v>
+      </c>
+      <c r="C124" t="s">
+        <v>541</v>
+      </c>
+      <c r="D124" t="s">
+        <v>313</v>
+      </c>
+      <c r="E124" t="s">
+        <v>24</v>
+      </c>
+      <c r="F124" t="s">
+        <v>12</v>
+      </c>
+      <c r="G124" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" t="s">
+        <v>543</v>
+      </c>
+      <c r="B125" t="s">
+        <v>544</v>
+      </c>
+      <c r="C125" t="s">
+        <v>545</v>
+      </c>
+      <c r="D125" t="s">
+        <v>546</v>
+      </c>
+      <c r="E125" t="s">
+        <v>11</v>
+      </c>
+      <c r="F125" t="s">
+        <v>12</v>
+      </c>
+      <c r="G125" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" t="s">
+        <v>93</v>
+      </c>
+      <c r="B126" t="s">
+        <v>548</v>
+      </c>
+      <c r="C126" t="s">
+        <v>549</v>
+      </c>
+      <c r="D126" t="s">
+        <v>550</v>
+      </c>
+      <c r="E126" t="s">
+        <v>11</v>
+      </c>
+      <c r="F126" t="s">
+        <v>30</v>
+      </c>
+      <c r="G126" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" t="s">
+        <v>552</v>
+      </c>
+      <c r="B127" t="s">
+        <v>553</v>
+      </c>
+      <c r="C127" t="s">
+        <v>554</v>
+      </c>
+      <c r="D127" t="s">
+        <v>212</v>
+      </c>
+      <c r="E127" t="s">
+        <v>18</v>
+      </c>
+      <c r="F127" t="s">
+        <v>12</v>
+      </c>
+      <c r="G127" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" t="s">
+        <v>455</v>
+      </c>
+      <c r="B128" t="s">
+        <v>556</v>
+      </c>
+      <c r="C128" t="s">
+        <v>557</v>
+      </c>
+      <c r="D128" t="s">
+        <v>558</v>
+      </c>
+      <c r="E128" t="s">
+        <v>11</v>
+      </c>
+      <c r="F128" t="s">
+        <v>12</v>
+      </c>
+      <c r="G128" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" t="s">
+        <v>560</v>
+      </c>
+      <c r="B129" t="s">
+        <v>561</v>
+      </c>
+      <c r="C129" t="s">
+        <v>562</v>
+      </c>
+      <c r="D129" t="s">
+        <v>563</v>
+      </c>
+      <c r="E129" t="s">
+        <v>24</v>
+      </c>
+      <c r="F129" t="s">
+        <v>12</v>
+      </c>
+      <c r="G129" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" t="s">
+        <v>318</v>
+      </c>
+      <c r="B130" t="s">
+        <v>565</v>
+      </c>
+      <c r="C130" t="s">
+        <v>566</v>
+      </c>
+      <c r="D130" t="s">
+        <v>248</v>
+      </c>
+      <c r="E130" t="s">
+        <v>24</v>
+      </c>
+      <c r="F130" t="s">
+        <v>30</v>
+      </c>
+      <c r="G130" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131" t="s">
+        <v>568</v>
+      </c>
+      <c r="B131" t="s">
+        <v>569</v>
+      </c>
+      <c r="C131" t="s">
+        <v>570</v>
+      </c>
+      <c r="D131" t="s">
+        <v>45</v>
+      </c>
+      <c r="E131" t="s">
+        <v>24</v>
+      </c>
+      <c r="F131" t="s">
+        <v>30</v>
+      </c>
+      <c r="G131" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132" t="s">
+        <v>572</v>
+      </c>
+      <c r="B132" t="s">
+        <v>573</v>
+      </c>
+      <c r="C132" t="s">
+        <v>574</v>
+      </c>
+      <c r="D132" t="s">
+        <v>45</v>
+      </c>
+      <c r="E132" t="s">
+        <v>18</v>
+      </c>
+      <c r="F132" t="s">
+        <v>30</v>
+      </c>
+      <c r="G132" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133" t="s">
+        <v>576</v>
+      </c>
+      <c r="B133" t="s">
+        <v>577</v>
+      </c>
+      <c r="C133" t="s">
+        <v>578</v>
+      </c>
+      <c r="D133" t="s">
+        <v>109</v>
+      </c>
+      <c r="E133" t="s">
+        <v>18</v>
+      </c>
+      <c r="F133" t="s">
+        <v>12</v>
+      </c>
+      <c r="G133" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" t="s">
+        <v>580</v>
+      </c>
+      <c r="B134" t="s">
+        <v>581</v>
+      </c>
+      <c r="C134" t="s">
+        <v>582</v>
+      </c>
+      <c r="D134" t="s">
+        <v>583</v>
+      </c>
+      <c r="E134" t="s">
+        <v>24</v>
+      </c>
+      <c r="F134" t="s">
+        <v>12</v>
+      </c>
+      <c r="G134" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" t="s">
+        <v>585</v>
+      </c>
+      <c r="B135" t="s">
+        <v>586</v>
+      </c>
+      <c r="C135" t="s">
+        <v>587</v>
+      </c>
+      <c r="D135" t="s">
+        <v>279</v>
+      </c>
+      <c r="E135" t="s">
+        <v>18</v>
+      </c>
+      <c r="F135" t="s">
+        <v>12</v>
+      </c>
+      <c r="G135" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" t="s">
+        <v>589</v>
+      </c>
+      <c r="B136" t="s">
+        <v>590</v>
+      </c>
+      <c r="C136" t="s">
+        <v>591</v>
+      </c>
+      <c r="D136" t="s">
+        <v>592</v>
+      </c>
+      <c r="E136" t="s">
+        <v>24</v>
+      </c>
+      <c r="F136" t="s">
+        <v>12</v>
+      </c>
+      <c r="G136" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" t="s">
+        <v>594</v>
+      </c>
+      <c r="B137" t="s">
+        <v>595</v>
+      </c>
+      <c r="C137" t="s">
+        <v>596</v>
+      </c>
+      <c r="D137" t="s">
+        <v>183</v>
+      </c>
+      <c r="E137" t="s">
+        <v>11</v>
+      </c>
+      <c r="F137" t="s">
+        <v>12</v>
+      </c>
+      <c r="G137" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" t="s">
+        <v>598</v>
+      </c>
+      <c r="B138" t="s">
+        <v>599</v>
+      </c>
+      <c r="C138" t="s">
+        <v>600</v>
+      </c>
+      <c r="D138" t="s">
+        <v>601</v>
+      </c>
+      <c r="E138" t="s">
+        <v>18</v>
+      </c>
+      <c r="F138" t="s">
+        <v>30</v>
+      </c>
+      <c r="G138" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" t="s">
+        <v>603</v>
+      </c>
+      <c r="B139" t="s">
+        <v>458</v>
+      </c>
+      <c r="C139" t="s">
+        <v>604</v>
+      </c>
+      <c r="D139" t="s">
+        <v>50</v>
+      </c>
+      <c r="E139" t="s">
+        <v>18</v>
+      </c>
+      <c r="F139" t="s">
+        <v>12</v>
+      </c>
+      <c r="G139" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" t="s">
+        <v>606</v>
+      </c>
+      <c r="B140" t="s">
+        <v>226</v>
+      </c>
+      <c r="C140" t="s">
+        <v>607</v>
+      </c>
+      <c r="D140" t="s">
+        <v>345</v>
+      </c>
+      <c r="E140" t="s">
+        <v>11</v>
+      </c>
+      <c r="F140" t="s">
+        <v>12</v>
+      </c>
+      <c r="G140" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" t="s">
+        <v>609</v>
+      </c>
+      <c r="B141" t="s">
+        <v>610</v>
+      </c>
+      <c r="C141" t="s">
+        <v>611</v>
+      </c>
+      <c r="D141" t="s">
+        <v>407</v>
+      </c>
+      <c r="E141" t="s">
+        <v>18</v>
+      </c>
+      <c r="F141" t="s">
+        <v>30</v>
+      </c>
+      <c r="G141" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142" t="s">
+        <v>613</v>
+      </c>
+      <c r="B142" t="s">
+        <v>614</v>
+      </c>
+      <c r="C142" t="s">
+        <v>615</v>
+      </c>
+      <c r="D142" t="s">
+        <v>364</v>
+      </c>
+      <c r="E142" t="s">
+        <v>11</v>
+      </c>
+      <c r="F142" t="s">
+        <v>30</v>
+      </c>
+      <c r="G142" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" t="s">
+        <v>617</v>
+      </c>
+      <c r="B143" t="s">
+        <v>618</v>
+      </c>
+      <c r="C143" t="s">
+        <v>619</v>
+      </c>
+      <c r="D143" t="s">
+        <v>188</v>
+      </c>
+      <c r="E143" t="s">
+        <v>18</v>
+      </c>
+      <c r="F143" t="s">
+        <v>30</v>
+      </c>
+      <c r="G143" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" t="s">
+        <v>621</v>
+      </c>
+      <c r="B144" t="s">
+        <v>622</v>
+      </c>
+      <c r="C144" t="s">
+        <v>623</v>
+      </c>
+      <c r="D144" t="s">
+        <v>624</v>
+      </c>
+      <c r="E144" t="s">
+        <v>24</v>
+      </c>
+      <c r="F144" t="s">
+        <v>30</v>
+      </c>
+      <c r="G144" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145" t="s">
+        <v>626</v>
+      </c>
+      <c r="B145" t="s">
+        <v>627</v>
+      </c>
+      <c r="C145" t="s">
+        <v>628</v>
+      </c>
+      <c r="D145" t="s">
+        <v>629</v>
+      </c>
+      <c r="E145" t="s">
+        <v>11</v>
+      </c>
+      <c r="F145" t="s">
+        <v>12</v>
+      </c>
+      <c r="G145" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" t="s">
+        <v>631</v>
+      </c>
+      <c r="B146" t="s">
+        <v>632</v>
+      </c>
+      <c r="C146" t="s">
+        <v>633</v>
+      </c>
+      <c r="D146" t="s">
+        <v>497</v>
+      </c>
+      <c r="E146" t="s">
+        <v>18</v>
+      </c>
+      <c r="F146" t="s">
+        <v>12</v>
+      </c>
+      <c r="G146" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" t="s">
+        <v>23</v>
+      </c>
+      <c r="B147" t="s">
+        <v>635</v>
+      </c>
+      <c r="C147" t="s">
+        <v>636</v>
+      </c>
+      <c r="D147" t="s">
+        <v>69</v>
+      </c>
+      <c r="E147" t="s">
+        <v>18</v>
+      </c>
+      <c r="F147" t="s">
+        <v>12</v>
+      </c>
+      <c r="G147" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" t="s">
+        <v>638</v>
+      </c>
+      <c r="B148" t="s">
+        <v>639</v>
+      </c>
+      <c r="C148" t="s">
+        <v>640</v>
+      </c>
+      <c r="D148" t="s">
+        <v>10</v>
+      </c>
+      <c r="E148" t="s">
+        <v>18</v>
+      </c>
+      <c r="F148" t="s">
+        <v>30</v>
+      </c>
+      <c r="G148" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" t="s">
+        <v>642</v>
+      </c>
+      <c r="B149" t="s">
+        <v>643</v>
+      </c>
+      <c r="C149" t="s">
+        <v>478</v>
+      </c>
+      <c r="D149" t="s">
+        <v>69</v>
+      </c>
+      <c r="E149" t="s">
+        <v>11</v>
+      </c>
+      <c r="F149" t="s">
+        <v>12</v>
+      </c>
+      <c r="G149" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" t="s">
+        <v>644</v>
+      </c>
+      <c r="B150" t="s">
+        <v>645</v>
+      </c>
+      <c r="C150" t="s">
+        <v>646</v>
+      </c>
+      <c r="D150" t="s">
+        <v>40</v>
+      </c>
+      <c r="E150" t="s">
+        <v>11</v>
+      </c>
+      <c r="F150" t="s">
+        <v>12</v>
+      </c>
+      <c r="G150" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151" t="s">
+        <v>648</v>
+      </c>
+      <c r="B151" t="s">
+        <v>649</v>
+      </c>
+      <c r="C151" t="s">
+        <v>650</v>
+      </c>
+      <c r="D151" t="s">
+        <v>624</v>
+      </c>
+      <c r="E151" t="s">
+        <v>24</v>
+      </c>
+      <c r="F151" t="s">
+        <v>12</v>
+      </c>
+      <c r="G151" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" t="s">
+        <v>652</v>
+      </c>
+      <c r="B152" t="s">
+        <v>653</v>
+      </c>
+      <c r="C152" t="s">
+        <v>215</v>
+      </c>
+      <c r="D152" t="s">
+        <v>265</v>
+      </c>
+      <c r="E152" t="s">
+        <v>18</v>
+      </c>
+      <c r="F152" t="s">
+        <v>30</v>
+      </c>
+      <c r="G152" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" t="s">
+        <v>655</v>
+      </c>
+      <c r="B153" t="s">
+        <v>656</v>
+      </c>
+      <c r="C153" t="s">
+        <v>657</v>
+      </c>
+      <c r="D153" t="s">
+        <v>250</v>
+      </c>
+      <c r="E153" t="s">
+        <v>18</v>
+      </c>
+      <c r="F153" t="s">
+        <v>12</v>
+      </c>
+      <c r="G153" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154" t="s">
+        <v>659</v>
+      </c>
+      <c r="B154" t="s">
+        <v>660</v>
+      </c>
+      <c r="C154" t="s">
+        <v>554</v>
+      </c>
+      <c r="D154" t="s">
+        <v>169</v>
+      </c>
+      <c r="E154" t="s">
+        <v>18</v>
+      </c>
+      <c r="F154" t="s">
+        <v>12</v>
+      </c>
+      <c r="G154" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" t="s">
+        <v>662</v>
+      </c>
+      <c r="B155" t="s">
+        <v>663</v>
+      </c>
+      <c r="C155" t="s">
+        <v>664</v>
+      </c>
+      <c r="D155" t="s">
+        <v>64</v>
+      </c>
+      <c r="E155" t="s">
+        <v>11</v>
+      </c>
+      <c r="F155" t="s">
+        <v>12</v>
+      </c>
+      <c r="G155" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" t="s">
+        <v>666</v>
+      </c>
+      <c r="B156" t="s">
+        <v>343</v>
+      </c>
+      <c r="C156" t="s">
+        <v>667</v>
+      </c>
+      <c r="D156" t="s">
+        <v>237</v>
+      </c>
+      <c r="E156" t="s">
+        <v>18</v>
+      </c>
+      <c r="F156" t="s">
+        <v>12</v>
+      </c>
+      <c r="G156" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" t="s">
+        <v>331</v>
+      </c>
+      <c r="B157" t="s">
+        <v>669</v>
+      </c>
+      <c r="C157" t="s">
+        <v>670</v>
+      </c>
+      <c r="D157" t="s">
+        <v>35</v>
+      </c>
+      <c r="E157" t="s">
+        <v>24</v>
+      </c>
+      <c r="F157" t="s">
+        <v>12</v>
+      </c>
+      <c r="G157" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" t="s">
+        <v>672</v>
+      </c>
+      <c r="B158" t="s">
+        <v>673</v>
+      </c>
+      <c r="C158" t="s">
+        <v>674</v>
+      </c>
+      <c r="D158" t="s">
+        <v>260</v>
+      </c>
+      <c r="E158" t="s">
+        <v>24</v>
+      </c>
+      <c r="F158" t="s">
+        <v>12</v>
+      </c>
+      <c r="G158" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159" t="s">
+        <v>676</v>
+      </c>
+      <c r="B159" t="s">
+        <v>677</v>
+      </c>
+      <c r="C159" t="s">
+        <v>352</v>
+      </c>
+      <c r="D159" t="s">
+        <v>103</v>
+      </c>
+      <c r="E159" t="s">
+        <v>24</v>
+      </c>
+      <c r="F159" t="s">
+        <v>30</v>
+      </c>
+      <c r="G159" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" t="s">
+        <v>538</v>
+      </c>
+      <c r="B160" t="s">
+        <v>679</v>
+      </c>
+      <c r="C160" t="s">
+        <v>680</v>
+      </c>
+      <c r="D160" t="s">
+        <v>514</v>
+      </c>
+      <c r="E160" t="s">
+        <v>11</v>
+      </c>
+      <c r="F160" t="s">
+        <v>30</v>
+      </c>
+      <c r="G160" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" t="s">
+        <v>682</v>
+      </c>
+      <c r="B161" t="s">
+        <v>683</v>
+      </c>
+      <c r="C161" t="s">
+        <v>684</v>
+      </c>
+      <c r="D161" t="s">
+        <v>183</v>
+      </c>
+      <c r="E161" t="s">
+        <v>18</v>
+      </c>
+      <c r="F161" t="s">
+        <v>12</v>
+      </c>
+      <c r="G161" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" t="s">
+        <v>243</v>
+      </c>
+      <c r="B162" t="s">
+        <v>300</v>
+      </c>
+      <c r="C162" t="s">
+        <v>686</v>
+      </c>
+      <c r="D162" t="s">
+        <v>69</v>
+      </c>
+      <c r="E162" t="s">
+        <v>24</v>
+      </c>
+      <c r="F162" t="s">
+        <v>12</v>
+      </c>
+      <c r="G162" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163" t="s">
+        <v>688</v>
+      </c>
+      <c r="B163" t="s">
+        <v>689</v>
+      </c>
+      <c r="C163" t="s">
+        <v>690</v>
+      </c>
+      <c r="D163" t="s">
+        <v>160</v>
+      </c>
+      <c r="E163" t="s">
+        <v>11</v>
+      </c>
+      <c r="F163" t="s">
+        <v>12</v>
+      </c>
+      <c r="G163" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164" t="s">
+        <v>511</v>
+      </c>
+      <c r="B164" t="s">
+        <v>692</v>
+      </c>
+      <c r="C164" t="s">
+        <v>693</v>
+      </c>
+      <c r="D164" t="s">
+        <v>558</v>
+      </c>
+      <c r="E164" t="s">
+        <v>18</v>
+      </c>
+      <c r="F164" t="s">
+        <v>12</v>
+      </c>
+      <c r="G164" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165" t="s">
+        <v>250</v>
+      </c>
+      <c r="B165" t="s">
+        <v>695</v>
+      </c>
+      <c r="C165" t="s">
+        <v>696</v>
+      </c>
+      <c r="D165" t="s">
+        <v>150</v>
+      </c>
+      <c r="E165" t="s">
+        <v>11</v>
+      </c>
+      <c r="F165" t="s">
+        <v>12</v>
+      </c>
+      <c r="G165" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" t="s">
+        <v>698</v>
+      </c>
+      <c r="B166" t="s">
+        <v>699</v>
+      </c>
+      <c r="C166" t="s">
+        <v>700</v>
+      </c>
+      <c r="D166" t="s">
+        <v>232</v>
+      </c>
+      <c r="E166" t="s">
+        <v>18</v>
+      </c>
+      <c r="F166" t="s">
+        <v>12</v>
+      </c>
+      <c r="G166" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" t="s">
+        <v>357</v>
+      </c>
+      <c r="B167" t="s">
+        <v>702</v>
+      </c>
+      <c r="C167" t="s">
+        <v>703</v>
+      </c>
+      <c r="D167" t="s">
+        <v>237</v>
+      </c>
+      <c r="E167" t="s">
+        <v>18</v>
+      </c>
+      <c r="F167" t="s">
+        <v>12</v>
+      </c>
+      <c r="G167" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168" t="s">
+        <v>613</v>
+      </c>
+      <c r="B168" t="s">
+        <v>705</v>
+      </c>
+      <c r="C168" t="s">
+        <v>706</v>
+      </c>
+      <c r="D168" t="s">
+        <v>93</v>
+      </c>
+      <c r="E168" t="s">
+        <v>11</v>
+      </c>
+      <c r="F168" t="s">
+        <v>30</v>
+      </c>
+      <c r="G168" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169" t="s">
+        <v>708</v>
+      </c>
+      <c r="B169" t="s">
+        <v>709</v>
+      </c>
+      <c r="C169" t="s">
+        <v>710</v>
+      </c>
+      <c r="D169" t="s">
+        <v>128</v>
+      </c>
+      <c r="E169" t="s">
+        <v>18</v>
+      </c>
+      <c r="F169" t="s">
+        <v>30</v>
+      </c>
+      <c r="G169" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" t="s">
+        <v>26</v>
+      </c>
+      <c r="B170" t="s">
+        <v>485</v>
+      </c>
+      <c r="C170" t="s">
+        <v>712</v>
+      </c>
+      <c r="D170" t="s">
+        <v>148</v>
+      </c>
+      <c r="E170" t="s">
+        <v>18</v>
+      </c>
+      <c r="F170" t="s">
+        <v>30</v>
+      </c>
+      <c r="G170" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171" t="s">
+        <v>714</v>
+      </c>
+      <c r="B171" t="s">
+        <v>715</v>
+      </c>
+      <c r="C171" t="s">
+        <v>716</v>
+      </c>
+      <c r="D171" t="s">
+        <v>717</v>
+      </c>
+      <c r="E171" t="s">
+        <v>11</v>
+      </c>
+      <c r="F171" t="s">
+        <v>12</v>
+      </c>
+      <c r="G171" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" t="s">
+        <v>719</v>
+      </c>
+      <c r="B172" t="s">
+        <v>720</v>
+      </c>
+      <c r="C172" t="s">
+        <v>721</v>
+      </c>
+      <c r="D172" t="s">
+        <v>563</v>
+      </c>
+      <c r="E172" t="s">
+        <v>18</v>
+      </c>
+      <c r="F172" t="s">
+        <v>12</v>
+      </c>
+      <c r="G172" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173" t="s">
+        <v>723</v>
+      </c>
+      <c r="B173" t="s">
+        <v>724</v>
+      </c>
+      <c r="C173" t="s">
+        <v>725</v>
+      </c>
+      <c r="D173" t="s">
+        <v>284</v>
+      </c>
+      <c r="E173" t="s">
+        <v>11</v>
+      </c>
+      <c r="F173" t="s">
+        <v>12</v>
+      </c>
+      <c r="G173" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174" t="s">
+        <v>205</v>
+      </c>
+      <c r="B174" t="s">
+        <v>727</v>
+      </c>
+      <c r="C174" t="s">
+        <v>728</v>
+      </c>
+      <c r="D174" t="s">
+        <v>23</v>
+      </c>
+      <c r="E174" t="s">
+        <v>11</v>
+      </c>
+      <c r="F174" t="s">
+        <v>30</v>
+      </c>
+      <c r="G174" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175" t="s">
+        <v>730</v>
+      </c>
+      <c r="B175" t="s">
+        <v>731</v>
+      </c>
+      <c r="C175" t="s">
+        <v>732</v>
+      </c>
+      <c r="D175" t="s">
+        <v>248</v>
+      </c>
+      <c r="E175" t="s">
+        <v>11</v>
+      </c>
+      <c r="F175" t="s">
+        <v>30</v>
+      </c>
+      <c r="G175" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" t="s">
+        <v>734</v>
+      </c>
+      <c r="B176" t="s">
+        <v>735</v>
+      </c>
+      <c r="C176" t="s">
+        <v>736</v>
+      </c>
+      <c r="D176" t="s">
+        <v>199</v>
+      </c>
+      <c r="E176" t="s">
+        <v>11</v>
+      </c>
+      <c r="F176" t="s">
+        <v>12</v>
+      </c>
+      <c r="G176" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177" t="s">
+        <v>738</v>
+      </c>
+      <c r="B177" t="s">
+        <v>590</v>
+      </c>
+      <c r="C177" t="s">
+        <v>739</v>
+      </c>
+      <c r="D177" t="s">
+        <v>740</v>
+      </c>
+      <c r="E177" t="s">
+        <v>24</v>
+      </c>
+      <c r="F177" t="s">
+        <v>30</v>
+      </c>
+      <c r="G177" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178" t="s">
+        <v>742</v>
+      </c>
+      <c r="B178" t="s">
+        <v>743</v>
+      </c>
+      <c r="C178" t="s">
+        <v>744</v>
+      </c>
+      <c r="D178" t="s">
+        <v>745</v>
+      </c>
+      <c r="E178" t="s">
+        <v>24</v>
+      </c>
+      <c r="F178" t="s">
+        <v>30</v>
+      </c>
+      <c r="G178" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179" t="s">
+        <v>708</v>
+      </c>
+      <c r="B179" t="s">
+        <v>747</v>
+      </c>
+      <c r="C179" t="s">
+        <v>748</v>
+      </c>
+      <c r="D179" t="s">
+        <v>688</v>
+      </c>
+      <c r="E179" t="s">
+        <v>11</v>
+      </c>
+      <c r="F179" t="s">
+        <v>30</v>
+      </c>
+      <c r="G179" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180" t="s">
+        <v>750</v>
+      </c>
+      <c r="B180" t="s">
+        <v>131</v>
+      </c>
+      <c r="C180" t="s">
+        <v>751</v>
+      </c>
+      <c r="D180" t="s">
+        <v>487</v>
+      </c>
+      <c r="E180" t="s">
+        <v>24</v>
+      </c>
+      <c r="F180" t="s">
+        <v>12</v>
+      </c>
+      <c r="G180" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181" t="s">
+        <v>753</v>
+      </c>
+      <c r="B181" t="s">
+        <v>754</v>
+      </c>
+      <c r="C181" t="s">
+        <v>755</v>
+      </c>
+      <c r="D181" t="s">
+        <v>146</v>
+      </c>
+      <c r="E181" t="s">
+        <v>18</v>
+      </c>
+      <c r="F181" t="s">
+        <v>30</v>
+      </c>
+      <c r="G181" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="A182" t="s">
+        <v>757</v>
+      </c>
+      <c r="B182" t="s">
+        <v>758</v>
+      </c>
+      <c r="C182" t="s">
+        <v>759</v>
+      </c>
+      <c r="D182" t="s">
+        <v>59</v>
+      </c>
+      <c r="E182" t="s">
+        <v>11</v>
+      </c>
+      <c r="F182" t="s">
+        <v>30</v>
+      </c>
+      <c r="G182" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183" t="s">
+        <v>761</v>
+      </c>
+      <c r="B183" t="s">
+        <v>762</v>
+      </c>
+      <c r="C183" t="s">
+        <v>763</v>
+      </c>
+      <c r="D183" t="s">
+        <v>465</v>
+      </c>
+      <c r="E183" t="s">
+        <v>18</v>
+      </c>
+      <c r="F183" t="s">
+        <v>30</v>
+      </c>
+      <c r="G183" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184" t="s">
+        <v>765</v>
+      </c>
+      <c r="B184" t="s">
+        <v>766</v>
+      </c>
+      <c r="C184" t="s">
+        <v>767</v>
+      </c>
+      <c r="D184" t="s">
+        <v>768</v>
+      </c>
+      <c r="E184" t="s">
+        <v>24</v>
+      </c>
+      <c r="F184" t="s">
+        <v>30</v>
+      </c>
+      <c r="G184" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="A185" t="s">
+        <v>116</v>
+      </c>
+      <c r="B185" t="s">
+        <v>770</v>
+      </c>
+      <c r="C185" t="s">
+        <v>771</v>
+      </c>
+      <c r="D185" t="s">
+        <v>745</v>
+      </c>
+      <c r="E185" t="s">
+        <v>24</v>
+      </c>
+      <c r="F185" t="s">
+        <v>30</v>
+      </c>
+      <c r="G185" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186" t="s">
+        <v>773</v>
+      </c>
+      <c r="B186" t="s">
+        <v>774</v>
+      </c>
+      <c r="C186" t="s">
+        <v>775</v>
+      </c>
+      <c r="D186" t="s">
+        <v>450</v>
+      </c>
+      <c r="E186" t="s">
+        <v>18</v>
+      </c>
+      <c r="F186" t="s">
+        <v>12</v>
+      </c>
+      <c r="G186" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="A187" t="s">
+        <v>336</v>
+      </c>
+      <c r="B187" t="s">
+        <v>244</v>
+      </c>
+      <c r="C187" t="s">
+        <v>777</v>
+      </c>
+      <c r="D187" t="s">
+        <v>369</v>
+      </c>
+      <c r="E187" t="s">
+        <v>18</v>
+      </c>
+      <c r="F187" t="s">
+        <v>30</v>
+      </c>
+      <c r="G187" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="A188" t="s">
+        <v>779</v>
+      </c>
+      <c r="B188" t="s">
+        <v>268</v>
+      </c>
+      <c r="C188" t="s">
+        <v>780</v>
+      </c>
+      <c r="D188" t="s">
+        <v>260</v>
+      </c>
+      <c r="E188" t="s">
+        <v>24</v>
+      </c>
+      <c r="F188" t="s">
+        <v>30</v>
+      </c>
+      <c r="G188" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="A189" t="s">
+        <v>782</v>
+      </c>
+      <c r="B189" t="s">
+        <v>783</v>
+      </c>
+      <c r="C189" t="s">
+        <v>784</v>
+      </c>
+      <c r="D189" t="s">
+        <v>497</v>
+      </c>
+      <c r="E189" t="s">
+        <v>24</v>
+      </c>
+      <c r="F189" t="s">
+        <v>30</v>
+      </c>
+      <c r="G189" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
+      <c r="A190" t="s">
+        <v>786</v>
+      </c>
+      <c r="B190" t="s">
+        <v>787</v>
+      </c>
+      <c r="C190" t="s">
+        <v>788</v>
+      </c>
+      <c r="D190" t="s">
+        <v>789</v>
+      </c>
+      <c r="E190" t="s">
+        <v>24</v>
+      </c>
+      <c r="F190" t="s">
+        <v>12</v>
+      </c>
+      <c r="G190" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="A191" t="s">
+        <v>791</v>
+      </c>
+      <c r="B191" t="s">
+        <v>792</v>
+      </c>
+      <c r="C191" t="s">
+        <v>793</v>
+      </c>
+      <c r="D191" t="s">
+        <v>148</v>
+      </c>
+      <c r="E191" t="s">
+        <v>24</v>
+      </c>
+      <c r="F191" t="s">
+        <v>12</v>
+      </c>
+      <c r="G191" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
+      <c r="A192" t="s">
+        <v>795</v>
+      </c>
+      <c r="B192" t="s">
+        <v>796</v>
+      </c>
+      <c r="C192" t="s">
+        <v>177</v>
+      </c>
+      <c r="D192" t="s">
+        <v>745</v>
+      </c>
+      <c r="E192" t="s">
+        <v>18</v>
+      </c>
+      <c r="F192" t="s">
+        <v>30</v>
+      </c>
+      <c r="G192" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
+      <c r="A193" t="s">
+        <v>798</v>
+      </c>
+      <c r="B193" t="s">
+        <v>799</v>
+      </c>
+      <c r="C193" t="s">
+        <v>582</v>
+      </c>
+      <c r="D193" t="s">
+        <v>603</v>
+      </c>
+      <c r="E193" t="s">
+        <v>11</v>
+      </c>
+      <c r="F193" t="s">
+        <v>30</v>
+      </c>
+      <c r="G193" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="A194" t="s">
+        <v>801</v>
+      </c>
+      <c r="B194" t="s">
+        <v>656</v>
+      </c>
+      <c r="C194" t="s">
+        <v>802</v>
+      </c>
+      <c r="D194" t="s">
+        <v>803</v>
+      </c>
+      <c r="E194" t="s">
+        <v>11</v>
+      </c>
+      <c r="F194" t="s">
+        <v>12</v>
+      </c>
+      <c r="G194" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
+      <c r="A195" t="s">
+        <v>805</v>
+      </c>
+      <c r="B195" t="s">
+        <v>645</v>
+      </c>
+      <c r="C195" t="s">
+        <v>806</v>
+      </c>
+      <c r="D195" t="s">
+        <v>109</v>
+      </c>
+      <c r="E195" t="s">
+        <v>11</v>
+      </c>
+      <c r="F195" t="s">
+        <v>30</v>
+      </c>
+      <c r="G195" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
+      <c r="A196" t="s">
+        <v>568</v>
+      </c>
+      <c r="B196" t="s">
+        <v>808</v>
+      </c>
+      <c r="C196" t="s">
+        <v>164</v>
+      </c>
+      <c r="D196" t="s">
+        <v>69</v>
+      </c>
+      <c r="E196" t="s">
+        <v>11</v>
+      </c>
+      <c r="F196" t="s">
+        <v>30</v>
+      </c>
+      <c r="G196" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
+      <c r="A197" t="s">
+        <v>810</v>
+      </c>
+      <c r="B197" t="s">
+        <v>811</v>
+      </c>
+      <c r="C197" t="s">
+        <v>684</v>
+      </c>
+      <c r="D197" t="s">
+        <v>487</v>
+      </c>
+      <c r="E197" t="s">
+        <v>18</v>
+      </c>
+      <c r="F197" t="s">
+        <v>12</v>
+      </c>
+      <c r="G197" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
+      <c r="A198" t="s">
+        <v>813</v>
+      </c>
+      <c r="B198" t="s">
+        <v>814</v>
+      </c>
+      <c r="C198" t="s">
+        <v>815</v>
+      </c>
+      <c r="D198" t="s">
+        <v>64</v>
+      </c>
+      <c r="E198" t="s">
+        <v>11</v>
+      </c>
+      <c r="F198" t="s">
+        <v>12</v>
+      </c>
+      <c r="G198" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
+      <c r="A199" t="s">
+        <v>817</v>
+      </c>
+      <c r="B199" t="s">
+        <v>818</v>
+      </c>
+      <c r="C199" t="s">
+        <v>434</v>
+      </c>
+      <c r="D199" t="s">
+        <v>79</v>
+      </c>
+      <c r="E199" t="s">
+        <v>24</v>
+      </c>
+      <c r="F199" t="s">
+        <v>30</v>
+      </c>
+      <c r="G199" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
+      <c r="A200" t="s">
+        <v>820</v>
+      </c>
+      <c r="B200" t="s">
+        <v>821</v>
+      </c>
+      <c r="C200" t="s">
+        <v>822</v>
+      </c>
+      <c r="D200" t="s">
+        <v>823</v>
+      </c>
+      <c r="E200" t="s">
+        <v>11</v>
+      </c>
+      <c r="F200" t="s">
+        <v>30</v>
+      </c>
+      <c r="G200" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
+      <c r="A201" t="s">
+        <v>825</v>
+      </c>
+      <c r="B201" t="s">
+        <v>826</v>
+      </c>
+      <c r="C201" t="s">
+        <v>827</v>
+      </c>
+      <c r="D201" t="s">
+        <v>382</v>
+      </c>
+      <c r="E201" t="s">
+        <v>11</v>
+      </c>
+      <c r="F201" t="s">
+        <v>12</v>
+      </c>
+      <c r="G201" t="s">
+        <v>828</v>
       </c>
     </row>
   </sheetData>

--- a/logs/Enrollment_Log.xlsx
+++ b/logs/Enrollment_Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="829">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="817">
   <si>
     <t xml:space="preserve">SubjectID</t>
   </si>
@@ -48,9 +48,6 @@
     <t xml:space="preserve">292</t>
   </si>
   <si>
-    <t xml:space="preserve">11/10/2015</t>
-  </si>
-  <si>
     <t xml:space="preserve">0:30</t>
   </si>
   <si>
@@ -69,9 +66,6 @@
     <t xml:space="preserve">970</t>
   </si>
   <si>
-    <t xml:space="preserve">12/7/2016</t>
-  </si>
-  <si>
     <t xml:space="preserve">23:35</t>
   </si>
   <si>
@@ -87,9 +81,6 @@
     <t xml:space="preserve">131</t>
   </si>
   <si>
-    <t xml:space="preserve">2/19/2013</t>
-  </si>
-  <si>
     <t xml:space="preserve">22:37</t>
   </si>
   <si>
@@ -105,9 +96,6 @@
     <t xml:space="preserve">500</t>
   </si>
   <si>
-    <t xml:space="preserve">9/26/2015</t>
-  </si>
-  <si>
     <t xml:space="preserve">8:49</t>
   </si>
   <si>
@@ -123,9 +111,6 @@
     <t xml:space="preserve">759</t>
   </si>
   <si>
-    <t xml:space="preserve">9/4/2015</t>
-  </si>
-  <si>
     <t xml:space="preserve">17:8</t>
   </si>
   <si>
@@ -138,9 +123,6 @@
     <t xml:space="preserve">471</t>
   </si>
   <si>
-    <t xml:space="preserve">2/10/2013</t>
-  </si>
-  <si>
     <t xml:space="preserve">22:43</t>
   </si>
   <si>
@@ -153,9 +135,6 @@
     <t xml:space="preserve">619</t>
   </si>
   <si>
-    <t xml:space="preserve">3/14/2012</t>
-  </si>
-  <si>
     <t xml:space="preserve">19:52</t>
   </si>
   <si>
@@ -168,9 +147,6 @@
     <t xml:space="preserve">943</t>
   </si>
   <si>
-    <t xml:space="preserve">1/7/2016</t>
-  </si>
-  <si>
     <t xml:space="preserve">18:56</t>
   </si>
   <si>
@@ -183,9 +159,6 @@
     <t xml:space="preserve">295</t>
   </si>
   <si>
-    <t xml:space="preserve">5/25/2016</t>
-  </si>
-  <si>
     <t xml:space="preserve">5:56</t>
   </si>
   <si>
@@ -195,9 +168,6 @@
     <t xml:space="preserve">639</t>
   </si>
   <si>
-    <t xml:space="preserve">12/16/2012</t>
-  </si>
-  <si>
     <t xml:space="preserve">2:21</t>
   </si>
   <si>
@@ -210,9 +180,6 @@
     <t xml:space="preserve">155</t>
   </si>
   <si>
-    <t xml:space="preserve">8/15/2016</t>
-  </si>
-  <si>
     <t xml:space="preserve">16:5</t>
   </si>
   <si>
@@ -223,9 +190,6 @@
   </si>
   <si>
     <t xml:space="preserve">406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/12/2014</t>
   </si>
   <si>
     <t xml:space="preserve">18:45</t>
@@ -2515,8 +2479,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="MM/DD/YY"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -2583,12 +2548,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2612,18 +2581,18 @@
   <dimension ref="A1:G201"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:C1 F1:G1"/>
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="1" width="4.72448979591837"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="14.1734693877551"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="23.4897959183673"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="1" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="1" width="4.59183673469388"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="23.0816326530612"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="1" width="10.8010204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2653,4600 +2622,4600 @@
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="n">
+        <v>43040</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>43040</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>43041</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="F4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>43042</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>43043</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>43041</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>43044</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>43042</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>43043</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>57</v>
+        <v>47</v>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>43041</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>62</v>
+        <v>51</v>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>43040</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>67</v>
+        <v>55</v>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>43043</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>525</v>
+        <v>513</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>539</v>
+        <v>527</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>541</v>
+        <v>529</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>570</v>
+        <v>558</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>573</v>
+        <v>561</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>586</v>
+        <v>574</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>587</v>
+        <v>575</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>594</v>
+        <v>582</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>595</v>
+        <v>583</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>597</v>
+        <v>585</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>598</v>
+        <v>586</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>602</v>
+        <v>590</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>604</v>
+        <v>592</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>605</v>
+        <v>593</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>606</v>
+        <v>594</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>607</v>
+        <v>595</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>608</v>
+        <v>596</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>610</v>
+        <v>598</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>611</v>
+        <v>599</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>612</v>
+        <v>600</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>614</v>
+        <v>602</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>617</v>
+        <v>605</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>618</v>
+        <v>606</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>619</v>
+        <v>607</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>620</v>
+        <v>608</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>621</v>
+        <v>609</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>622</v>
+        <v>610</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>623</v>
+        <v>611</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>624</v>
+        <v>612</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>625</v>
+        <v>613</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>626</v>
+        <v>614</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>627</v>
+        <v>615</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>628</v>
+        <v>616</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>629</v>
+        <v>617</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>630</v>
+        <v>618</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>631</v>
+        <v>619</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>632</v>
+        <v>620</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>633</v>
+        <v>621</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>634</v>
+        <v>622</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>635</v>
+        <v>623</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>636</v>
+        <v>624</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>637</v>
+        <v>625</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>638</v>
+        <v>626</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>640</v>
+        <v>628</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>641</v>
+        <v>629</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
-        <v>642</v>
+        <v>630</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>643</v>
+        <v>631</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
-        <v>644</v>
+        <v>632</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>645</v>
+        <v>633</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>646</v>
+        <v>634</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
-        <v>648</v>
+        <v>636</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>649</v>
+        <v>637</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>650</v>
+        <v>638</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>624</v>
+        <v>612</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>651</v>
+        <v>639</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
-        <v>652</v>
+        <v>640</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>653</v>
+        <v>641</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>654</v>
+        <v>642</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
-        <v>655</v>
+        <v>643</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>656</v>
+        <v>644</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>657</v>
+        <v>645</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>658</v>
+        <v>646</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>660</v>
+        <v>648</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>661</v>
+        <v>649</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
-        <v>662</v>
+        <v>650</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>663</v>
+        <v>651</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>664</v>
+        <v>652</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>665</v>
+        <v>653</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
-        <v>666</v>
+        <v>654</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>667</v>
+        <v>655</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>668</v>
+        <v>656</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>669</v>
+        <v>657</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>670</v>
+        <v>658</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>671</v>
+        <v>659</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>673</v>
+        <v>661</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>674</v>
+        <v>662</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>675</v>
+        <v>663</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
-        <v>676</v>
+        <v>664</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>677</v>
+        <v>665</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>678</v>
+        <v>666</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>679</v>
+        <v>667</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>680</v>
+        <v>668</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>681</v>
+        <v>669</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>685</v>
+        <v>673</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>686</v>
+        <v>674</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>687</v>
+        <v>675</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
-        <v>688</v>
+        <v>676</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>689</v>
+        <v>677</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>690</v>
+        <v>678</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>691</v>
+        <v>679</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>693</v>
+        <v>681</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>694</v>
+        <v>682</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>695</v>
+        <v>683</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>697</v>
+        <v>685</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
-        <v>698</v>
+        <v>686</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>699</v>
+        <v>687</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>700</v>
+        <v>688</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>701</v>
+        <v>689</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>702</v>
+        <v>690</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>703</v>
+        <v>691</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>704</v>
+        <v>692</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>705</v>
+        <v>693</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>706</v>
+        <v>694</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>707</v>
+        <v>695</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
-        <v>708</v>
+        <v>696</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>709</v>
+        <v>697</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>710</v>
+        <v>698</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>711</v>
+        <v>699</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>712</v>
+        <v>700</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>713</v>
+        <v>701</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
-        <v>714</v>
+        <v>702</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>715</v>
+        <v>703</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>716</v>
+        <v>704</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>717</v>
+        <v>705</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>718</v>
+        <v>706</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
-        <v>719</v>
+        <v>707</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>720</v>
+        <v>708</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>721</v>
+        <v>709</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>722</v>
+        <v>710</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
-        <v>723</v>
+        <v>711</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>724</v>
+        <v>712</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>725</v>
+        <v>713</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>727</v>
+        <v>715</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>728</v>
+        <v>716</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>729</v>
+        <v>717</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
-        <v>730</v>
+        <v>718</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>732</v>
+        <v>720</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>733</v>
+        <v>721</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>735</v>
+        <v>723</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>736</v>
+        <v>724</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>737</v>
+        <v>725</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="s">
-        <v>738</v>
+        <v>726</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>739</v>
+        <v>727</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>740</v>
+        <v>728</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>741</v>
+        <v>729</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
-        <v>742</v>
+        <v>730</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>743</v>
+        <v>731</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>744</v>
+        <v>732</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>745</v>
+        <v>733</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>746</v>
+        <v>734</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
-        <v>708</v>
+        <v>696</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>747</v>
+        <v>735</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>748</v>
+        <v>736</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>688</v>
+        <v>676</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>749</v>
+        <v>737</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
-        <v>750</v>
+        <v>738</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>751</v>
+        <v>739</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>752</v>
+        <v>740</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>754</v>
+        <v>742</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>755</v>
+        <v>743</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>756</v>
+        <v>744</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>759</v>
+        <v>747</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>760</v>
+        <v>748</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
-        <v>761</v>
+        <v>749</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>762</v>
+        <v>750</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>763</v>
+        <v>751</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>764</v>
+        <v>752</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
-        <v>765</v>
+        <v>753</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>766</v>
+        <v>754</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>767</v>
+        <v>755</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>768</v>
+        <v>756</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>769</v>
+        <v>757</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>770</v>
+        <v>758</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>771</v>
+        <v>759</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>745</v>
+        <v>733</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>772</v>
+        <v>760</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
-        <v>773</v>
+        <v>761</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>774</v>
+        <v>762</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>775</v>
+        <v>763</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>776</v>
+        <v>764</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>777</v>
+        <v>765</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>778</v>
+        <v>766</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="s">
-        <v>779</v>
+        <v>767</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>780</v>
+        <v>768</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>781</v>
+        <v>769</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="s">
-        <v>782</v>
+        <v>770</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>783</v>
+        <v>771</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>784</v>
+        <v>772</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>785</v>
+        <v>773</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="s">
-        <v>786</v>
+        <v>774</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>787</v>
+        <v>775</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>788</v>
+        <v>776</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>789</v>
+        <v>777</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>790</v>
+        <v>778</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="s">
-        <v>791</v>
+        <v>779</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>792</v>
+        <v>780</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>793</v>
+        <v>781</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>794</v>
+        <v>782</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="s">
-        <v>795</v>
+        <v>783</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>796</v>
+        <v>784</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>745</v>
+        <v>733</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>797</v>
+        <v>785</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="s">
-        <v>798</v>
+        <v>786</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>799</v>
+        <v>787</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G193" s="1" t="s">
-        <v>800</v>
+        <v>788</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="s">
-        <v>801</v>
+        <v>789</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>656</v>
+        <v>644</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>802</v>
+        <v>790</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>803</v>
+        <v>791</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>804</v>
+        <v>792</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="s">
-        <v>805</v>
+        <v>793</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>645</v>
+        <v>633</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>806</v>
+        <v>794</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G195" s="1" t="s">
-        <v>807</v>
+        <v>795</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>808</v>
+        <v>796</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G196" s="1" t="s">
-        <v>809</v>
+        <v>797</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
-        <v>810</v>
+        <v>798</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>811</v>
+        <v>799</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>812</v>
+        <v>800</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="s">
-        <v>813</v>
+        <v>801</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>814</v>
+        <v>802</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>815</v>
+        <v>803</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>816</v>
+        <v>804</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="s">
-        <v>817</v>
+        <v>805</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>818</v>
+        <v>806</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G199" s="1" t="s">
-        <v>819</v>
+        <v>807</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="s">
-        <v>820</v>
+        <v>808</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>821</v>
+        <v>809</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>822</v>
+        <v>810</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>823</v>
+        <v>811</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G200" s="1" t="s">
-        <v>824</v>
+        <v>812</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="s">
-        <v>825</v>
+        <v>813</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>826</v>
+        <v>814</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>827</v>
+        <v>815</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G201" s="1" t="s">
-        <v>828</v>
+        <v>816</v>
       </c>
     </row>
   </sheetData>
@@ -7268,12 +7237,12 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:C1 F1:G1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="10.8010204081633"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -7294,12 +7263,12 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:C1 F1:G1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="10.8010204081633"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
